--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688B561E-E9BE-45DC-BCE4-726C78739B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE4159B-DEE9-45EB-9FE2-52AF55FD568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,22 +941,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0564.HK</t>
   </si>
   <si>
+    <t>鄭煤機</t>
+  </si>
+  <si>
     <t>C0006</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>鄭煤機</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Dividend</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3576,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3639,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3692,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4164,11 +4169,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9216805166668356E-2</v>
+        <v>8.7693158646076047E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9477870111112247E-2</v>
+        <v>5.8462105764050712E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4285,7 +4290,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4397,7 +4402,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4849,7 +4854,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4902,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.08</v>
+        <v>10.26</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4943,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>17996.831294400003</v>
+        <v>18318.203281800001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5038,10 +5043,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5088,7 +5093,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5175,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.857901525611485</v>
+        <v>6.9770558354731484</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5212,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9216805166668356E-2</v>
+        <v>8.7693158646076047E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5242,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.0923767443828236</v>
+        <v>20.067888456495552</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>14.181788946608313</v>
+        <v>37.080530490910988</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5204432286856751</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>12.331990388355056</v>
+        <v>32.243939557313908</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -6314,10 +6319,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D46" sqref="D46"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10252,8 +10257,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12122,17 +12127,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14581720024199898</v>
+        <v>0.14332693095499432</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14581720024199896</v>
+        <v>0.1433269309549943</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14581720024199896</v>
+        <v>0.1433269309549943</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12173,17 +12178,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9216805166668356E-2</v>
+        <v>8.7693158646076047E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9216805166668356E-2</v>
+        <v>8.7693158646076047E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9216805166668356E-2</v>
+        <v>8.7693158646076047E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12232,7 +12237,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12243,14 +12248,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.319345859484386</v>
+        <v>47.486696099906588</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.319345859484386</v>
+        <v>47.486696099906588</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12271,14 +12276,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>19.149011916202632</v>
+        <v>22.640691342920125</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>19.149011916202632</v>
+        <v>22.640691342920125</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12321,21 +12326,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35789842.660737872</v>
+        <v>42152007.818205848</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>20.045840743781071</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.045840743781071</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.965714982046244</v>
+        <v>32.243939557313908</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12384,27 +12389,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>35789842.660737872</v>
+        <v>42152007.818205848</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.038964632213908</v>
+        <v>20.067888456495552</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>20.045840743781071</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.045840743781071</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.045840743781071</v>
+        <v>23.609280537053593</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>25.965714982046244</v>
+        <v>32.243939557313908</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12445,27 +12450,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>16997798.674064379</v>
+        <v>20097220.419136129</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.0923767443828236</v>
+        <v>9.5679612557538896</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.5204432286856751</v>
+        <v>11.256425006769282</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>9.5204432286856751</v>
+        <v>11.256425006769282</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.5204432286856751</v>
+        <v>11.256425006769282</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.331990388355056</v>
+        <v>15.373254893560658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12506,27 +12511,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>26393820.667401124</v>
+        <v>31124614.118670985</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.565670688298365</v>
+        <v>14.817924856124721</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.783141986233373</v>
+        <v>17.432852771911438</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.783141986233373</v>
+        <v>17.432852771911438</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.783141986233373</v>
+        <v>17.432852771911438</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.148852685200652</v>
+        <v>23.808597225437282</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12537,8 +12542,9 @@
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="128" t="s">
-        <v>266</v>
+      <c r="C108" s="128" t="str">
+        <f>Inputs!C87</f>
+        <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE4159B-DEE9-45EB-9FE2-52AF55FD568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523B3C6-2A49-4591-91A2-734B7F80EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -966,6 +966,12 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2674,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.78453465804081768</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10773556748225227</c:v>
@@ -2677,16 +2683,16 @@
                   <c:v>7.3308514744086254E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1105657937696694E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0669041048412063E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0979200200663114E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9729881954109345E-2</c:v>
+                  <c:v>5.7179681856567195E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3635,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3817,12 +3823,8 @@
       <c r="D25" s="149">
         <v>32043306</v>
       </c>
-      <c r="E25" s="149">
-        <v>29293527</v>
-      </c>
-      <c r="F25" s="149">
-        <v>26519393</v>
-      </c>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="149"/>
       <c r="H25" s="149"/>
       <c r="I25" s="149"/>
@@ -3841,12 +3843,8 @@
       <c r="D26" s="150">
         <v>25644599</v>
       </c>
-      <c r="E26" s="150">
-        <v>22885480</v>
-      </c>
-      <c r="F26" s="150">
-        <v>20008105</v>
-      </c>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
       <c r="G26" s="150"/>
       <c r="H26" s="150"/>
       <c r="I26" s="150"/>
@@ -3860,19 +3858,15 @@
         <v>103</v>
       </c>
       <c r="C27" s="150">
-        <f>1156268+1199587+1568223</f>
-        <v>3924078</v>
+        <f>1156268+1199587</f>
+        <v>2355855</v>
       </c>
       <c r="D27" s="150">
-        <f>831593+1072973+1385962</f>
-        <v>3290528</v>
-      </c>
-      <c r="E27" s="150">
-        <v>877689</v>
-      </c>
-      <c r="F27" s="150">
-        <v>1662947</v>
-      </c>
+        <f>831593+1072973</f>
+        <v>1904566</v>
+      </c>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="150"/>
       <c r="H27" s="150"/>
       <c r="I27" s="150"/>
@@ -3885,8 +3879,12 @@
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
+      <c r="C28" s="150">
+        <v>1568223</v>
+      </c>
+      <c r="D28" s="150">
+        <v>1385962</v>
+      </c>
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="150"/>
@@ -3924,7 +3922,9 @@
       <c r="C30" s="150">
         <v>200260</v>
       </c>
-      <c r="D30" s="150"/>
+      <c r="D30" s="150">
+        <v>89770</v>
+      </c>
       <c r="E30" s="150"/>
       <c r="F30" s="150"/>
       <c r="G30" s="150"/>
@@ -3939,8 +3939,14 @@
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
+      <c r="C31" s="150">
+        <f>5396777-4992273</f>
+        <v>404504</v>
+      </c>
+      <c r="D31" s="150">
+        <f>4505286-2928945</f>
+        <v>1576341</v>
+      </c>
       <c r="E31" s="150"/>
       <c r="F31" s="150"/>
       <c r="G31" s="150"/>
@@ -3955,8 +3961,14 @@
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
+      <c r="C32" s="150">
+        <f>694647+21399+252318+162011</f>
+        <v>1130375</v>
+      </c>
+      <c r="D32" s="150">
+        <f>582889+18815+190402+152526</f>
+        <v>944632</v>
+      </c>
       <c r="E32" s="150"/>
       <c r="F32" s="150"/>
       <c r="G32" s="150"/>
@@ -3971,8 +3983,14 @@
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
+      <c r="C33" s="150">
+        <f>1431077+99196</f>
+        <v>1530273</v>
+      </c>
+      <c r="D33" s="150">
+        <f>1300700+112152</f>
+        <v>1412852</v>
+      </c>
       <c r="E33" s="150"/>
       <c r="F33" s="150"/>
       <c r="G33" s="150"/>
@@ -4230,7 +4248,10 @@
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="59">
+        <f>1945896+4729233</f>
+        <v>6675129</v>
+      </c>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
@@ -4250,7 +4271,10 @@
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="59">
+        <f>21825+216230+10353472+198861</f>
+        <v>10790388</v>
+      </c>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -4261,7 +4285,10 @@
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="59">
+        <f>5944162+3848095</f>
+        <v>9792257</v>
+      </c>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
@@ -4271,7 +4298,9 @@
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="59"/>
+      <c r="C52" s="59">
+        <v>91072</v>
+      </c>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
@@ -4281,7 +4310,9 @@
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="59">
+        <v>33867</v>
+      </c>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
@@ -4302,7 +4333,9 @@
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="59">
+        <v>9296608</v>
+      </c>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
@@ -4338,7 +4371,9 @@
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="59"/>
+      <c r="C58" s="59">
+        <v>31969</v>
+      </c>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
@@ -4360,7 +4395,9 @@
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="59">
+        <v>1468712</v>
+      </c>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
@@ -4371,7 +4408,10 @@
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="59">
+        <f>6872+408159</f>
+        <v>415031</v>
+      </c>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -4404,7 +4444,10 @@
       <c r="B64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="59"/>
+      <c r="C64" s="59">
+        <f>78998+213498</f>
+        <v>292496</v>
+      </c>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
@@ -4414,7 +4457,10 @@
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="59">
+        <f>677520+99664</f>
+        <v>777184</v>
+      </c>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
@@ -4426,7 +4472,9 @@
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="59">
+        <v>314605</v>
+      </c>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
@@ -4451,7 +4499,10 @@
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="59">
+        <f>6295147+1828283</f>
+        <v>8123430</v>
+      </c>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
@@ -4473,7 +4524,9 @@
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="59"/>
+      <c r="C70" s="59">
+        <v>813309</v>
+      </c>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
@@ -4483,7 +4536,9 @@
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="59"/>
+      <c r="C71" s="59">
+        <v>382679</v>
+      </c>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
@@ -4494,7 +4549,9 @@
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="247"/>
+      <c r="C72" s="247">
+        <v>88283</v>
+      </c>
       <c r="D72" s="248">
         <v>0</v>
       </c>
@@ -4504,13 +4561,17 @@
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="59"/>
+      <c r="C73" s="59">
+        <v>1143514</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="59"/>
+      <c r="C74" s="59">
+        <v>145305</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
@@ -4528,19 +4589,25 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="83">
+        <v>19380410</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="59">
+        <v>6159723</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="59"/>
+      <c r="C79" s="59">
+        <v>1202523</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
@@ -4558,13 +4625,17 @@
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="83"/>
+      <c r="C82" s="83">
+        <v>8125280</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="59">
+        <v>20378212</v>
+      </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -4661,12 +4732,12 @@
         <v>0.78453465804081768</v>
       </c>
       <c r="E92" s="252">
-        <f>E91*D92</f>
-        <v>28575291</v>
+        <f>E91*80%</f>
+        <v>29138588.800000001</v>
       </c>
       <c r="F92" s="252">
-        <f>F91*D92</f>
-        <v>28575291</v>
+        <f>F91*79.5%</f>
+        <v>28956472.620000001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -4714,19 +4785,19 @@
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
-        <v>0</v>
+        <v>399898</v>
       </c>
       <c r="D95" s="159">
         <f>C95/C91</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="E95" s="252">
         <f>E91*D95</f>
-        <v>0</v>
+        <v>399897.99999999994</v>
       </c>
       <c r="F95" s="252">
         <f>F91*D95</f>
-        <v>0</v>
+        <v>399897.99999999994</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -4735,16 +4806,16 @@
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
-        <v>0</v>
+        <v>404504</v>
       </c>
       <c r="D96" s="159">
         <f>C96/C91</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="E96" s="253"/>
       <c r="F96" s="252">
         <f>F91*D96</f>
-        <v>0</v>
+        <v>404504</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
@@ -4775,8 +4846,8 @@
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
-        <f>F98</f>
-        <v>0.84</v>
+        <f>D44</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
@@ -4853,8 +4924,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4986,7 +5057,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5119,7 +5190,7 @@
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
-        <v>0.78453465804081768</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
@@ -5157,14 +5228,14 @@
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.78158351372649748</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5180,7 +5251,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9770558354731484</v>
+        <v>10.948826159520374</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5189,14 +5260,14 @@
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.61184006426267745</v>
+        <v>0.96013714939512762</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5205,7 +5276,7 @@
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>8.9729881954109345E-2</v>
+        <v>5.7179681856567195E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
@@ -5242,20 +5313,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.067888456495552</v>
+        <v>7.6527658011245716</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>37.080530490910988</v>
+        <v>17.68285486539909</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.609280537053593</v>
+        <v>9.6023652192774094</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>32.243939557313908</v>
+        <v>15.376395535129646</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5289,10 +5360,10 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="225" t="e">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
-        <v>#DIV/0!</v>
+        <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6319,10 +6390,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6480,13 +6551,13 @@
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>32043306</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v>29293527</v>
-      </c>
-      <c r="F6" s="200">
+        <v/>
+      </c>
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v>26519393</v>
+        <v/>
       </c>
       <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
@@ -6527,13 +6598,13 @@
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.13668783114950744</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="92" t="str">
         <f t="shared" si="1"/>
-        <v>9.3869850496322904E-2</v>
-      </c>
-      <c r="E7" s="92">
+        <v/>
+      </c>
+      <c r="E7" s="92" t="str">
         <f t="shared" si="1"/>
-        <v>0.10460774875201717</v>
+        <v/>
       </c>
       <c r="F7" s="92" t="str">
         <f t="shared" si="1"/>
@@ -6582,13 +6653,13 @@
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>25644599</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v>22885480</v>
-      </c>
-      <c r="F8" s="199">
+        <v/>
+      </c>
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v>20008105</v>
+        <v/>
       </c>
       <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
@@ -6633,13 +6704,13 @@
         <f t="shared" si="2"/>
         <v>6398707</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
-        <v>6408047</v>
-      </c>
-      <c r="F9" s="151">
+        <v/>
+      </c>
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
-        <v>6511288</v>
+        <v/>
       </c>
       <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
@@ -6678,19 +6749,19 @@
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
-        <v>3924078</v>
+        <v>2355855</v>
       </c>
       <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
-        <v>3290528</v>
-      </c>
-      <c r="E10" s="199">
+        <v>1904566</v>
+      </c>
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
-        <v>877689</v>
-      </c>
-      <c r="F10" s="199">
+        <v/>
+      </c>
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
-        <v>1662947</v>
+        <v/>
       </c>
       <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
@@ -6727,13 +6798,13 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
-        <v/>
-      </c>
-      <c r="D11" s="199" t="str">
+        <v>1568223</v>
+      </c>
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
-        <v/>
+        <v>1385962</v>
       </c>
       <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
@@ -6782,9 +6853,9 @@
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D12" s="199" t="str">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>119693.33333333333</v>
       </c>
       <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6835,15 +6906,15 @@
       </c>
       <c r="D13" s="229">
         <f t="shared" si="3"/>
-        <v>9.6999323353214553E-2</v>
-      </c>
-      <c r="E13" s="229">
+        <v>9.3263961798032535E-2</v>
+      </c>
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
-        <v>0.18879112781468751</v>
-      </c>
-      <c r="F13" s="229">
+        <v/>
+      </c>
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
-        <v>0.18282247259580942</v>
+        <v/>
       </c>
       <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
@@ -6886,15 +6957,15 @@
       </c>
       <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
-        <v>3108179</v>
-      </c>
-      <c r="E14" s="230">
+        <v>2988485.6666666665</v>
+      </c>
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
-        <v>5530358</v>
-      </c>
-      <c r="F14" s="230">
+        <v/>
+      </c>
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
-        <v>4848341</v>
+        <v/>
       </c>
       <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
@@ -6933,15 +7004,15 @@
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>0.17652608381520707</v>
-      </c>
-      <c r="D15" s="232">
+        <v>0.2236477181252445</v>
+      </c>
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v>-0.43797869866652395</v>
-      </c>
-      <c r="E15" s="232">
+        <v/>
+      </c>
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
-        <v>0.14067017975839571</v>
+        <v/>
       </c>
       <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
@@ -6982,13 +7053,13 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
-        <v/>
-      </c>
-      <c r="D16" s="199" t="str">
+        <v>404504</v>
+      </c>
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
-        <v/>
+        <v>1576341</v>
       </c>
       <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
@@ -7084,13 +7155,13 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
-        <v/>
-      </c>
-      <c r="D18" s="152" t="str">
+        <v>3.103444735113596E-2</v>
+      </c>
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2.9479854544346953E-2</v>
       </c>
       <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
@@ -7135,13 +7206,13 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
-        <v/>
-      </c>
-      <c r="D19" s="199" t="str">
+        <v>1130375</v>
+      </c>
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
-        <v/>
+        <v>944632</v>
       </c>
       <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
@@ -7188,19 +7259,19 @@
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
-        <v>0</v>
+        <v>4.201364755179908E-2</v>
       </c>
       <c r="D20" s="152">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="152">
+        <v>4.4091954806411052E-2</v>
+      </c>
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="152">
+        <v/>
+      </c>
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
@@ -7237,13 +7308,13 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
-        <v/>
-      </c>
-      <c r="D21" s="199" t="str">
+        <v>1530273</v>
+      </c>
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
-        <v/>
+        <v>1412852</v>
       </c>
       <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
@@ -7290,19 +7361,19 @@
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
-        <v>3268252.6666666665</v>
+        <v>2463850.6666666665</v>
       </c>
       <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
-        <v>2842769</v>
-      </c>
-      <c r="E22" s="161">
+        <v>678514.66666666651</v>
+      </c>
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
-        <v>5530358</v>
-      </c>
-      <c r="F22" s="161">
+        <v/>
+      </c>
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
-        <v>4848341</v>
+        <v/>
       </c>
       <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7341,19 +7412,19 @@
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
-        <v>6.7297411465582019E-2</v>
+        <v>5.0733767861812169E-2</v>
       </c>
       <c r="D23" s="153">
         <f t="shared" si="9"/>
-        <v>6.6537352606500719E-2</v>
-      </c>
-      <c r="E23" s="153">
+        <v>1.588119527991275E-2</v>
+      </c>
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
-        <v>0.14159334586101566</v>
-      </c>
-      <c r="F23" s="153">
+        <v/>
+      </c>
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
-        <v>0.13711685444685706</v>
+        <v/>
       </c>
       <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7392,19 +7463,19 @@
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
-        <v>2451189.5</v>
+        <v>1847888</v>
       </c>
       <c r="D24" s="77">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
-        <v>2132076.75</v>
-      </c>
-      <c r="E24" s="77">
+        <v>508885.99999999988</v>
+      </c>
+      <c r="E24" s="77" t="str">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v>4147768.5</v>
-      </c>
-      <c r="F24" s="77">
+        <v/>
+      </c>
+      <c r="F24" s="77" t="str">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v>3636255.75</v>
+        <v/>
       </c>
       <c r="G24" s="77" t="str">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
@@ -7443,15 +7514,15 @@
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
-        <v>0.14967226203278094</v>
-      </c>
-      <c r="D25" s="233">
+        <v>2.6312415747338309</v>
+      </c>
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v>-0.48597016684995797</v>
-      </c>
-      <c r="E25" s="233">
+        <v/>
+      </c>
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
-        <v>0.14067017975839571</v>
+        <v/>
       </c>
       <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -7545,7 +7616,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
-        <v>0</v>
+        <v>49387019</v>
       </c>
       <c r="D27" s="65" t="str">
         <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
@@ -7596,7 +7667,7 @@
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
-        <v>0</v>
+        <v>36711290</v>
       </c>
       <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
@@ -7647,7 +7718,7 @@
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
-        <v>0</v>
+        <v>10790388</v>
       </c>
       <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
@@ -7698,7 +7769,7 @@
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
-        <v>0</v>
+        <v>9296608</v>
       </c>
       <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
@@ -7749,7 +7820,7 @@
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
-        <v>0</v>
+        <v>19380410</v>
       </c>
       <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7800,7 +7871,7 @@
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
-        <v>0</v>
+        <v>8125280</v>
       </c>
       <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
@@ -7851,7 +7922,7 @@
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
-        <v>0</v>
+        <v>1288819</v>
       </c>
       <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
@@ -7902,7 +7973,7 @@
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
-        <v>0</v>
+        <v>7362246</v>
       </c>
       <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
@@ -7953,7 +8024,7 @@
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
+        <v>8651065</v>
       </c>
       <c r="D35" s="77" t="str">
         <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
@@ -8004,7 +8075,7 @@
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
-        <v>0</v>
+        <v>21881329</v>
       </c>
       <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -8055,7 +8126,7 @@
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
-        <v>0</v>
+        <v>1503117</v>
       </c>
       <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -8106,7 +8177,7 @@
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
-        <v>0</v>
+        <v>19533990</v>
       </c>
       <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
@@ -8157,7 +8228,7 @@
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>29853029</v>
       </c>
       <c r="D39" s="65" t="str">
         <f>IF(D38="","",D27-D38)</f>
@@ -8206,17 +8277,17 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="155" t="e">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
+        <v>0.12249523043931879</v>
       </c>
       <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="155" t="e">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
@@ -8283,13 +8354,13 @@
         <f t="shared" si="34"/>
         <v>0.80031064834571064</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
-        <v>0.78124699699015421</v>
-      </c>
-      <c r="F42" s="156">
+        <v/>
+      </c>
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
-        <v>0.75447069998924943</v>
+        <v/>
       </c>
       <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
@@ -8334,13 +8405,13 @@
         <f t="shared" si="35"/>
         <v>0.10269002830107481</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
-        <v>2.9961875195158302E-2</v>
-      </c>
-      <c r="F43" s="153">
+        <v/>
+      </c>
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
-        <v>6.2706827414941213E-2</v>
+        <v/>
       </c>
       <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
@@ -8379,19 +8450,19 @@
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="D44" s="153">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="153">
+        <v>4.9194081284871169E-2</v>
+      </c>
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="153">
+        <v/>
+      </c>
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
@@ -8436,13 +8507,13 @@
         <f t="shared" si="37"/>
         <v>8.2828532112136002E-3</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="153">
+        <v/>
+      </c>
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
@@ -8485,15 +8556,15 @@
       </c>
       <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="153">
+        <v>3.7353615551820193E-3</v>
+      </c>
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="153">
+        <v/>
+      </c>
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
@@ -8532,19 +8603,19 @@
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
+        <v>1.4612100262064096E-2</v>
+      </c>
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
+        <v/>
+      </c>
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
@@ -8583,19 +8654,19 @@
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>8.9729881954109358E-2</v>
+        <v>6.764502381574955E-2</v>
       </c>
       <c r="D48" s="153">
         <f t="shared" si="40"/>
-        <v>8.8716470142000958E-2</v>
-      </c>
-      <c r="E48" s="153">
+        <v>2.1174927039883665E-2</v>
+      </c>
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
-        <v>0.18879112781468751</v>
-      </c>
-      <c r="F48" s="153">
+        <v/>
+      </c>
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
-        <v>0.18282247259580942</v>
+        <v/>
       </c>
       <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8652,7 +8723,7 @@
       </c>
       <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>0.29625011901743165</v>
       </c>
       <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
@@ -8703,7 +8774,7 @@
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0</v>
+        <v>0.25523838683635908</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8769,9 +8840,9 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
+        <v>0.55694169352477019</v>
       </c>
       <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
@@ -8819,9 +8890,9 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
+        <v>0.28480316199990019</v>
       </c>
       <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
@@ -8871,19 +8942,19 @@
       </c>
       <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.11890176177729221</v>
+        <v>0.1577210036539011</v>
       </c>
       <c r="D55" s="153">
         <f t="shared" si="45"/>
-        <v>9.3363196235782792E-2</v>
+        <v>0.39116324677825692</v>
       </c>
       <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
+        <v/>
       </c>
       <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
+        <v/>
       </c>
       <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
@@ -8919,9 +8990,9 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
-        <v>#DIV/0!</v>
+        <v>1.8942473353246914</v>
       </c>
       <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
@@ -10257,8 +10328,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10296,7 +10367,7 @@
       <c r="C3" s="87"/>
       <c r="D3" s="116">
         <f>C49-I49</f>
-        <v>0</v>
+        <v>21881329</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
@@ -10309,7 +10380,7 @@
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
-        <v>0</v>
+        <v>20378212</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -10320,7 +10391,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="65">
         <f>D3-I3</f>
-        <v>0</v>
+        <v>1503117</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -10338,9 +10409,9 @@
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="63" t="e">
+      <c r="I5" s="63">
         <f>C28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.8942473353246914</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -10351,20 +10422,20 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-4503581.4819747666</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.2058184620310204</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="63" t="e">
+      <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.4129067960894532</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
@@ -10385,9 +10456,9 @@
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="63" t="e">
+      <c r="I7" s="63">
         <f>C24/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.4064601316484016</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
@@ -10449,7 +10520,7 @@
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
-        <v>0</v>
+        <v>6675129</v>
       </c>
       <c r="D11" s="198">
         <f>Inputs!D48</f>
@@ -10457,7 +10528,7 @@
       </c>
       <c r="E11" s="88">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
-        <v>0</v>
+        <v>6007616.1000000006</v>
       </c>
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
@@ -10466,7 +10537,7 @@
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
-        <v>0</v>
+        <v>1143514</v>
       </c>
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
@@ -10494,7 +10565,7 @@
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
-        <v>0</v>
+        <v>145305</v>
       </c>
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
@@ -10505,7 +10576,7 @@
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
-        <v>0</v>
+        <v>10790388</v>
       </c>
       <c r="D13" s="198">
         <f>Inputs!D50</f>
@@ -10513,7 +10584,7 @@
       </c>
       <c r="E13" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6474232.7999999998</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
@@ -10533,7 +10604,7 @@
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
-        <v>0</v>
+        <v>9792257</v>
       </c>
       <c r="D14" s="198">
         <f>Inputs!D51</f>
@@ -10541,7 +10612,7 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5875354.2000000002</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
@@ -10561,7 +10632,7 @@
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
-        <v>0</v>
+        <v>91072</v>
       </c>
       <c r="D15" s="198">
         <f>Inputs!D52</f>
@@ -10569,7 +10640,7 @@
       </c>
       <c r="E15" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45536</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
@@ -10578,7 +10649,7 @@
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
-        <v>0</v>
+        <v>1288819</v>
       </c>
       <c r="J15" s="87"/>
     </row>
@@ -10588,7 +10659,7 @@
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
-        <v>0</v>
+        <v>33867</v>
       </c>
       <c r="D16" s="198">
         <f>Inputs!D53</f>
@@ -10596,7 +10667,7 @@
       </c>
       <c r="E16" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20320.2</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="30"/>
@@ -10632,7 +10703,7 @@
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
-        <v>0</v>
+        <v>9296608</v>
       </c>
       <c r="D18" s="198">
         <f>Inputs!D55</f>
@@ -10640,7 +10711,7 @@
       </c>
       <c r="E18" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4648304</v>
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="87"/>
@@ -10705,7 +10776,7 @@
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
-        <v>0</v>
+        <v>31969</v>
       </c>
       <c r="D21" s="198">
         <f>Inputs!D58</f>
@@ -10713,7 +10784,7 @@
       </c>
       <c r="E21" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28772.100000000002</v>
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="87"/>
@@ -10743,7 +10814,7 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>0</v>
+        <v>18091591</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10761,19 +10832,19 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
+        <v>27257774</v>
       </c>
       <c r="D24" s="62">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0</v>
+        <v>0.67346669981195095</v>
       </c>
       <c r="E24" s="88">
         <f>SUM(E11:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="113" t="e">
+        <v>18357203.100000001</v>
+      </c>
+      <c r="F24" s="113">
         <f>E24/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.79467945889182967</v>
       </c>
       <c r="G24" s="87"/>
     </row>
@@ -10783,27 +10854,27 @@
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>124939</v>
       </c>
       <c r="D25" s="62">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0</v>
+        <v>0.5271068281321285</v>
       </c>
       <c r="E25" s="88">
         <f>SUM(E15:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="113" t="e">
+        <v>65856.2</v>
+      </c>
+      <c r="F25" s="113">
         <f>E25/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>2.8509010384415319E-3</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="63" t="e">
+      <c r="I25" s="63">
         <f>E28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.1919322346637662</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10812,31 +10883,31 @@
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
-        <v>0</v>
+        <v>9296608</v>
       </c>
       <c r="D26" s="62">
         <f>IF(E26=0,0,E26/C26)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="88">
         <f>E18+E19+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="113" t="e">
+        <v>4648304</v>
+      </c>
+      <c r="F26" s="113">
         <f>E26/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.20122410191587015</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="63" t="e">
+      <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>14.243429915294547</v>
+      </c>
+      <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10845,31 +10916,31 @@
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
-        <v>0</v>
+        <v>31969</v>
       </c>
       <c r="D27" s="62">
         <f>IF(E27=0,0,E27/C27)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="88">
         <f>E21+E22</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="113" t="e">
+        <v>28772.100000000002</v>
+      </c>
+      <c r="F27" s="113">
         <f>E27/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>1.2455381538586134E-3</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="63" t="e">
+      <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="8" t="e">
+        <v>0.95060214412388599</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10878,15 +10949,15 @@
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="e">
+        <v>36711290</v>
+      </c>
+      <c r="D28" s="57">
         <f>E28/C28</f>
-        <v>#DIV/0!</v>
+        <v>0.62923791019057085</v>
       </c>
       <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>23100135.400000002</v>
       </c>
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
@@ -10895,11 +10966,11 @@
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="32" t="e">
+        <v>19380410</v>
+      </c>
+      <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10920,7 +10991,7 @@
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
-        <v>0</v>
+        <v>1468712</v>
       </c>
       <c r="D30" s="198">
         <f>Inputs!D60</f>
@@ -10936,7 +11007,7 @@
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
-        <v>0</v>
+        <v>6159723</v>
       </c>
       <c r="J30" s="87"/>
     </row>
@@ -10946,7 +11017,7 @@
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
-        <v>0</v>
+        <v>415031</v>
       </c>
       <c r="D31" s="198">
         <f>Inputs!D61</f>
@@ -10954,7 +11025,7 @@
       </c>
       <c r="E31" s="88">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
-        <v>0</v>
+        <v>249018.59999999998</v>
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
@@ -10963,7 +11034,7 @@
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
-        <v>0</v>
+        <v>1202523</v>
       </c>
       <c r="J31" s="87"/>
     </row>
@@ -11030,7 +11101,7 @@
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
-        <v>0</v>
+        <v>292496</v>
       </c>
       <c r="D34" s="198">
         <f>Inputs!D64</f>
@@ -11038,7 +11109,7 @@
       </c>
       <c r="E34" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116998.40000000001</v>
       </c>
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
@@ -11047,7 +11118,7 @@
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
-        <v>0</v>
+        <v>7362246</v>
       </c>
       <c r="J34" s="87"/>
     </row>
@@ -11057,7 +11128,7 @@
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
-        <v>0</v>
+        <v>777184</v>
       </c>
       <c r="D35" s="198">
         <f>Inputs!D65</f>
@@ -11065,7 +11136,7 @@
       </c>
       <c r="E35" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77718.400000000009</v>
       </c>
       <c r="F35" s="134" t="str">
         <f>Inputs!E65</f>
@@ -11083,7 +11154,7 @@
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
-        <v>0</v>
+        <v>314605</v>
       </c>
       <c r="D36" s="198">
         <f>Inputs!D66</f>
@@ -11091,7 +11162,7 @@
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62921</v>
       </c>
       <c r="F36" s="134" t="str">
         <f>Inputs!E66</f>
@@ -11137,7 +11208,7 @@
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
-        <v>0</v>
+        <v>8123430</v>
       </c>
       <c r="D38" s="198">
         <f>Inputs!D68</f>
@@ -11145,7 +11216,7 @@
       </c>
       <c r="E38" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>812343</v>
       </c>
       <c r="F38" s="112"/>
       <c r="G38" s="87"/>
@@ -11179,7 +11250,7 @@
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
-        <v>0</v>
+        <v>813309</v>
       </c>
       <c r="D40" s="198">
         <f>Inputs!D70</f>
@@ -11187,7 +11258,7 @@
       </c>
       <c r="E40" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40665.450000000004</v>
       </c>
       <c r="F40" s="112"/>
       <c r="G40" s="87"/>
@@ -11200,7 +11271,7 @@
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
-        <v>0</v>
+        <v>382679</v>
       </c>
       <c r="D41" s="198">
         <f>Inputs!D71</f>
@@ -11208,7 +11279,7 @@
       </c>
       <c r="E41" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>344411.10000000003</v>
       </c>
       <c r="F41" s="112"/>
       <c r="G41" s="87"/>
@@ -11221,7 +11292,7 @@
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
-        <v>0</v>
+        <v>88283</v>
       </c>
       <c r="D42" s="198">
         <f>Inputs!D72</f>
@@ -11238,7 +11309,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>763034</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11256,15 +11327,15 @@
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
-        <v>0</v>
+        <v>1883743</v>
       </c>
       <c r="D44" s="62">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0</v>
+        <v>0.13219351047356245</v>
       </c>
       <c r="E44" s="88">
         <f>SUM(E30:E31)</f>
-        <v>0</v>
+        <v>249018.59999999998</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
@@ -11275,15 +11346,15 @@
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>1069680</v>
       </c>
       <c r="D45" s="62">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0</v>
+        <v>0.18203275746017503</v>
       </c>
       <c r="E45" s="88">
         <f>SUM(E32:E35)</f>
-        <v>0</v>
+        <v>194716.80000000002</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
@@ -11294,28 +11365,28 @@
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
-        <v>0</v>
+        <v>8438035</v>
       </c>
       <c r="D46" s="62">
         <f>IF(E46=0,0,E46/C46)</f>
-        <v>0</v>
+        <v>0.1037284154426949</v>
       </c>
       <c r="E46" s="88">
         <f>E36+E37+E38+E39</f>
-        <v>0</v>
+        <v>875264</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="63" t="e">
+      <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="8" t="e">
+        <v>2.1507434864955939</v>
+      </c>
+      <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11324,28 +11395,28 @@
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
-        <v>0</v>
+        <v>1284271</v>
       </c>
       <c r="D47" s="62">
         <f>IF(E47=0,0,E47/C47)</f>
-        <v>0</v>
+        <v>0.29984057103212641</v>
       </c>
       <c r="E47" s="88">
         <f>E40+E41+E42</f>
-        <v>0</v>
+        <v>385076.55000000005</v>
       </c>
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="63" t="e">
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0.68592333804387384</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11354,15 +11425,15 @@
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="82" t="e">
+        <v>12675729</v>
+      </c>
+      <c r="D48" s="82">
         <f>E48/C48</f>
-        <v>#DIV/0!</v>
+        <v>0.13443612986677136</v>
       </c>
       <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>0</v>
+        <v>1704075.95</v>
       </c>
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
@@ -11371,7 +11442,7 @@
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
-        <v>0</v>
+        <v>8125280</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -11381,15 +11452,15 @@
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <v>49387019</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
+        <v>0.50224151714846366</v>
       </c>
       <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>0</v>
+        <v>24804211.350000001</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
@@ -11398,7 +11469,7 @@
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
-        <v>0</v>
+        <v>27505690</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -11438,15 +11509,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>1503117</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
+        <v>1503117</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11480,7 +11551,7 @@
       <c r="C56" s="87"/>
       <c r="D56" s="284">
         <f>I15+I34</f>
-        <v>0</v>
+        <v>8651065</v>
       </c>
       <c r="E56" s="282"/>
       <c r="F56" s="3"/>
@@ -11548,15 +11619,15 @@
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>0</v>
+        <v>11390149</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
-        <v>0</v>
+        <v>0.55403561445947724</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>0</v>
+        <v>6310548.2000000002</v>
       </c>
       <c r="F61" s="87"/>
       <c r="G61" s="87"/>
@@ -11569,15 +11640,15 @@
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
-        <v>0</v>
+        <v>8143841</v>
       </c>
       <c r="D62" s="107">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.73768828492599503</v>
       </c>
       <c r="E62" s="118">
         <f>E11+E30</f>
-        <v>0</v>
+        <v>6007616.1000000006</v>
       </c>
       <c r="F62" s="87"/>
       <c r="G62" s="87"/>
@@ -11590,15 +11661,15 @@
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
-        <v>0</v>
+        <v>19533990</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.63060154633026844</v>
       </c>
       <c r="E63" s="61">
         <f>E61+E62</f>
-        <v>0</v>
+        <v>12318164.300000001</v>
       </c>
       <c r="F63" s="87"/>
       <c r="G63" s="87"/>
@@ -11613,7 +11684,7 @@
       <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
-        <v>0</v>
+        <v>8651065</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
@@ -11626,15 +11697,15 @@
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>0</v>
+        <v>10882925</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3369589793185197</v>
       </c>
       <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>0</v>
+        <v>3667099.3000000007</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11671,15 +11742,15 @@
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>29853029</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.41825059192485964</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>0</v>
+        <v>12486047.050000001</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11694,7 +11765,7 @@
       <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>18854625</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11707,15 +11778,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>10998404</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5790456460773763</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>-6368577.9499999993</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11798,19 +11869,19 @@
       </c>
       <c r="E75" s="238">
         <f>Inputs!E92</f>
-        <v>28575291</v>
+        <v>29138588.800000001</v>
       </c>
       <c r="F75" s="160">
         <f>E75/E74</f>
-        <v>0.78453465804081768</v>
+        <v>0.8</v>
       </c>
       <c r="H75" s="238">
         <f>Inputs!F92</f>
-        <v>28575291</v>
+        <v>28956472.620000001</v>
       </c>
       <c r="I75" s="160">
         <f>H75/$H$74</f>
-        <v>0.78453465804081768</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="K75" s="24"/>
     </row>
@@ -11825,12 +11896,12 @@
       <c r="D76" s="210"/>
       <c r="E76" s="162">
         <f>E74-E75</f>
-        <v>7847945</v>
+        <v>7284647.1999999993</v>
       </c>
       <c r="F76" s="210"/>
       <c r="H76" s="162">
         <f>H74-H75</f>
-        <v>7847945</v>
+        <v>7466763.379999999</v>
       </c>
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
@@ -11909,20 +11980,20 @@
       </c>
       <c r="E79" s="259">
         <f>E76-E77-E78</f>
-        <v>3656853.666666666</v>
+        <v>3093555.8666666653</v>
       </c>
       <c r="F79" s="258">
         <f>E79/E74</f>
-        <v>0.10039892300252141</v>
+        <v>8.4933581043339076E-2</v>
       </c>
       <c r="G79" s="260"/>
       <c r="H79" s="259">
         <f>H76-H77-H78</f>
-        <v>3656853.666666666</v>
+        <v>3275672.046666665</v>
       </c>
       <c r="I79" s="258">
         <f>H79/H74</f>
-        <v>0.10039892300252141</v>
+        <v>8.9933581043339067E-2</v>
       </c>
       <c r="K79" s="24"/>
     </row>
@@ -11932,27 +12003,27 @@
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
-        <v>0</v>
+        <v>404504</v>
       </c>
       <c r="D80" s="159">
         <f>C80/$C$74</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="E80" s="180">
         <f>E74*F80</f>
-        <v>0</v>
+        <v>404504</v>
       </c>
       <c r="F80" s="160">
         <f>I80</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="H80" s="238">
         <f>Inputs!F96</f>
-        <v>0</v>
+        <v>404504</v>
       </c>
       <c r="I80" s="160">
         <f>H80/$H$74</f>
-        <v>0</v>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="K80" s="181" t="s">
         <v>131</v>
@@ -11994,27 +12065,27 @@
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
-        <v>0</v>
+        <v>399898</v>
       </c>
       <c r="D82" s="159">
         <f>C82/$C$74</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="E82" s="238">
         <f>Inputs!E95</f>
-        <v>0</v>
+        <v>399897.99999999994</v>
       </c>
       <c r="F82" s="160">
         <f>E82/E74</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>0</v>
+        <v>399897.99999999994</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>0</v>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
@@ -12024,27 +12095,27 @@
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
-        <v>3268252.6666666665</v>
+        <v>2463850.6666666665</v>
       </c>
       <c r="D83" s="164">
         <f>C83/$C$74</f>
-        <v>8.9729881954109358E-2</v>
+        <v>6.764502381574955E-2</v>
       </c>
       <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
-        <v>3268252.666666666</v>
+        <v>1900552.8666666653</v>
       </c>
       <c r="F83" s="164">
         <f>E83/E74</f>
-        <v>8.9729881954109345E-2</v>
+        <v>5.2179681856567198E-2</v>
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>3268252.666666666</v>
+        <v>2082669.046666665</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>8.9729881954109345E-2</v>
+        <v>5.7179681856567195E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
@@ -12075,28 +12146,28 @@
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
-        <v>2451189.5</v>
+        <v>1847888</v>
       </c>
       <c r="D85" s="258">
         <f>C85/$C$74</f>
-        <v>6.7297411465582019E-2</v>
+        <v>5.0733767861812169E-2</v>
       </c>
       <c r="E85" s="264">
         <f>E83*(1-F84)</f>
-        <v>2451189.4999999995</v>
+        <v>1425414.649999999</v>
       </c>
       <c r="F85" s="258">
         <f>E85/E74</f>
-        <v>6.7297411465582019E-2</v>
+        <v>3.9134761392425402E-2</v>
       </c>
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>2451189.4999999995</v>
+        <v>1562001.7849999988</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>6.7297411465582019E-2</v>
+        <v>4.2884761392425391E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
@@ -12106,17 +12177,17 @@
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>1.3729078055917701</v>
+        <v>1.0349994804805442</v>
       </c>
       <c r="D86" s="209"/>
       <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>1.3729078055917698</v>
+        <v>0.79837274890001764</v>
       </c>
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>1.3729078055917698</v>
+        <v>0.87487501189719374</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
@@ -12127,17 +12198,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14332693095499432</v>
+        <v>0.10805044480998412</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1433269309549943</v>
+        <v>8.3347414438087006E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1433269309549943</v>
+        <v>9.1333991921176527E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12152,15 +12223,15 @@
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.61184006426267734</v>
+        <v>0.81159461027941082</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.61184006426267745</v>
+        <v>0.70142674680662276</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12168,7 +12239,7 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.61184006426267745</v>
+        <v>0.96013714939512762</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12183,7 +12254,7 @@
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7693158646076047E-2</v>
+        <v>5.8462105764050712E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
@@ -12248,14 +12319,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.486696099906588</v>
+        <v>21.092248230550666</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.486696099906588</v>
+        <v>23.977993494471804</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12276,7 +12347,7 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.640691342920125</v>
+        <v>13.171735836667976</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
@@ -12326,21 +12397,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>42152007.818205848</v>
+        <v>21284289.122103244</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.609280537053593</v>
+        <v>10.486575115366312</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.609280537053593</v>
+        <v>11.921300524585124</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>32.243939557313908</v>
+        <v>16.281296372247212</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12350,14 +12421,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>0</v>
+        <v>1610002.5900092125</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>0.90176019554857523</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12389,27 +12460,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>42152007.818205848</v>
+        <v>19674286.532094032</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>20.067888456495552</v>
+        <v>8.7568509807630708</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>23.609280537053593</v>
+        <v>9.5848149198177364</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>23.609280537053593</v>
+        <v>10.302177624427143</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.609280537053593</v>
+        <v>11.01954032903655</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>32.243939557313908</v>
+        <v>15.379536176698636</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12454,15 +12525,15 @@
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.5679612557538896</v>
+        <v>6.5486806214860733</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.256425006769282</v>
+        <v>6.5486806214860733</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.256425006769282</v>
+        <v>8.9025528141276773</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
@@ -12511,27 +12582,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>31124614.118670985</v>
+        <v>14402370.905049566</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.817924856124721</v>
+        <v>7.6527658011245716</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>17.432852771911438</v>
+        <v>8.0667477706519044</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>17.432852771911438</v>
+        <v>9.6023652192774094</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>17.432852771911438</v>
+        <v>11.137982667902916</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>23.808597225437282</v>
+        <v>15.376395535129646</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12542,9 +12613,8 @@
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="128" t="str">
-        <f>Inputs!C87</f>
-        <v>Profit</v>
+      <c r="C108" s="128" t="s">
+        <v>270</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523B3C6-2A49-4591-91A2-734B7F80EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7071A9B-392B-4C17-AB56-0B9F728796EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -952,10 +952,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0564.HK</t>
   </si>
   <si>
     <t>鄭煤機</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0006</t>
@@ -966,12 +973,6 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -3587,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3609,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4187,11 +4188,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7693158646076047E-2</v>
+        <v>8.7798808235675097E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8462105764050712E-2</v>
+        <v>5.8532538823783405E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4924,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4978,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.26</v>
+        <v>10.24</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5019,7 +5020,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>18318.203281800001</v>
+        <v>18282.495283200002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5068,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5089,7 +5090,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5100,7 +5101,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5127,7 +5128,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5235,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78158351372649748</v>
+        <v>0.78064302285740794</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.948826159520374</v>
+        <v>10.935651276926983</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5283,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7693158646076047E-2</v>
+        <v>8.7798808235675097E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5313,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.6527658011245716</v>
+        <v>8.754927616819991</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.68285486539909</v>
+        <v>17.682690567523249</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.6023652192774094</v>
+        <v>10.299914843317637</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.376395535129646</v>
+        <v>15.376252667411521</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5361,8 +5362,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6388,12 +6389,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D44" sqref="D44"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8819,118 +8820,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>9.2353987392492579E-2</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.55694169352477019</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.28480316199990019</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8938,107 +8940,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1577210036539011</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.28480316199990019</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.39116324677825692</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1577210036539011</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.39116324677825692</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.8942473353246914</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9606,7 +9655,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,6 +10340,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10328,8 +10380,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10422,11 +10474,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4503581.4819747666</v>
+        <v>-4500217.7485153954</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2058184620310204</v>
+        <v>1.2056647358355335</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12198,17 +12250,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10805044480998412</v>
+        <v>0.10818062013182696</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3347414438087006E-2</v>
+        <v>8.3447828430073132E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1333991921176527E-2</v>
+        <v>9.1444027856840096E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12249,17 +12301,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7693158646076047E-2</v>
+        <v>8.7798808235675097E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8462105764050712E-2</v>
+        <v>5.8532538823783405E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7693158646076047E-2</v>
+        <v>8.7798808235675097E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12319,14 +12371,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.092248230550666</v>
+        <v>21.086263959030354</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.977993494471804</v>
+        <v>23.972165839636169</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12347,14 +12399,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.171735836667976</v>
+        <v>13.166277574686848</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.640691342920125</v>
+        <v>22.634770545088021</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12397,21 +12449,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21284289.122103244</v>
+        <v>21279116.150042254</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.486575115366312</v>
+        <v>10.483599874788705</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.921300524585124</v>
+        <v>11.918403150179499</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.281296372247212</v>
+        <v>16.277339336577985</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,14 +12473,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>1610002.5900092125</v>
+        <v>1608800.0760537386</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.90176019554857523</v>
+        <v>0.90108666916646429</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12460,27 +12512,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19674286.532094032</v>
+        <v>19670316.073988516</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7568509807630708</v>
+        <v>8.754927616819991</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5848149198177364</v>
+        <v>9.5825132056222415</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.302177624427143</v>
+        <v>10.299914843317637</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.01954032903655</v>
+        <v>11.017316481013035</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>15.379536176698636</v>
+        <v>15.376252667411521</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12521,27 +12573,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>20097220.419136129</v>
+        <v>20091964.76782731</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.5486806214860733</v>
+        <v>6.5459669006138936</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5486806214860733</v>
+        <v>6.5459669006138936</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.9025528141276773</v>
+        <v>8.8997241122233248</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.256425006769282</v>
+        <v>11.253481323832755</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.373254893560658</v>
+        <v>15.369234612869244</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12582,27 +12634,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14402370.905049566</v>
+        <v>14397893.626340196</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.6527658011245716</v>
+        <v>7.6504472587169428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0667477706519044</v>
+        <v>8.064240053118068</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.6023652192774094</v>
+        <v>9.5998194777704811</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.137982667902916</v>
+        <v>11.135398902422896</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.376395535129646</v>
+        <v>15.372743640140381</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12613,8 +12665,9 @@
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="128" t="s">
-        <v>270</v>
+      <c r="C108" s="128" t="str">
+        <f>Inputs!C87</f>
+        <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7071A9B-392B-4C17-AB56-0B9F728796EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E961A5B9-E124-424E-8E5F-7DE7EA481A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7798808235675097E-2</v>
+        <v>8.7765996810048805E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8532538823783405E-2</v>
+        <v>5.8510664540032543E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78064302285740794</v>
+        <v>0.7809348672096188</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.935651276926983</v>
+        <v>10.939739583578641</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7798808235675097E-2</v>
+        <v>8.7765996810048805E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.754927616819991</v>
+        <v>8.7502222041074091</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.682690567523249</v>
+        <v>17.673153121755615</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.299914843317637</v>
+        <v>10.294379063655775</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.376252667411521</v>
+        <v>15.367959236309233</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10380,8 +10380,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10474,11 +10474,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4500217.7485153954</v>
+        <v>-4498535.9653235199</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2056647358355335</v>
+        <v>1.2055878765555565</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12250,17 +12250,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10818062013182696</v>
+        <v>0.10814019178840192</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3447828430073132E-2</v>
+        <v>8.3416643015701009E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1444027856840096E-2</v>
+        <v>9.1409854170667285E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7798808235675097E-2</v>
+        <v>8.7765996810048805E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8532538823783405E-2</v>
+        <v>5.8510664540032543E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7798808235675097E-2</v>
+        <v>8.7765996810048805E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.086263959030354</v>
+        <v>21.075350406316545</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.972165839636169</v>
+        <v>23.95945589708538</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12399,14 +12399,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.166277574686848</v>
+        <v>13.1599973622215</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.634770545088021</v>
+        <v>22.62289947373834</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12449,21 +12449,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21279116.150042254</v>
+        <v>21267834.051227834</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.483599874788705</v>
+        <v>10.478173910279947</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.918403150179499</v>
+        <v>11.91208406243627</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.277339336577985</v>
+        <v>16.268709159011568</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12472,15 +12472,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>1608800.0760537386</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-1608198.8489402533</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.90108666916646429</v>
+        <v>-0.90074992270233445</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12511,28 +12511,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>19670316.073988516</v>
+        <f>C97+C98+$C$99</f>
+        <v>19659635.202287581</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.754927616819991</v>
+        <v>8.7502222041074091</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5825132056222415</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>9.5774239875776122</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.299914843317637</v>
+        <v>10.294379063655775</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.017316481013035</v>
+        <v>11.011334139733938</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>15.376252667411521</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>15.367959236309233</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12573,27 +12573,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>20091964.76782731</v>
+        <v>20081427.300843094</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.5459669006138936</v>
+        <v>6.5428445250833915</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5459669006138936</v>
+        <v>6.5428445250833915</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.8997241122233248</v>
+        <v>8.8952119142090105</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.253481323832755</v>
+        <v>11.247579303334629</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.369234612869244</v>
+        <v>15.361174037202444</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12634,27 +12634,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14397893.626340196</v>
+        <v>14390563.137043079</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.6504472587169428</v>
+        <v>7.6465333645954008</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.064240053118068</v>
+        <v>8.0601342563305014</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.5998194777704811</v>
+        <v>9.5947954889323928</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.135398902422896</v>
+        <v>11.129456721534282</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.372743640140381</v>
+        <v>15.364566636755839</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E961A5B9-E124-424E-8E5F-7DE7EA481A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C2181F-2E14-4E27-80D6-FB87F236A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7765996810048805E-2</v>
+        <v>8.8486119518129847E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8510664540032543E-2</v>
+        <v>5.8990746345419912E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.24</v>
+        <v>10.16</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>18282.495283200002</v>
+        <v>18139.663288799999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7809348672096188</v>
+        <v>0.77457941920859452</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.939739583578641</v>
+        <v>10.850709180420168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7765996810048805E-2</v>
+        <v>8.8486119518129847E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7502222041074091</v>
+        <v>8.7846097583435849</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.673153121755615</v>
+        <v>17.743351558294528</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.294379063655775</v>
+        <v>10.334835009815983</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.367959236309233</v>
+        <v>15.42900135503872</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10474,11 +10474,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4498535.9653235199</v>
+        <v>-4500013.4150320198</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2055878765555565</v>
+        <v>1.2056553975780913</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12250,17 +12250,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10814019178840192</v>
+        <v>0.10902748539405206</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3416643015701009E-2</v>
+        <v>8.4101079141886706E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1409854170667285E-2</v>
+        <v>9.2159874840667094E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7765996810048805E-2</v>
+        <v>8.8486119518129847E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8510664540032543E-2</v>
+        <v>5.8990746345419912E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7765996810048805E-2</v>
+        <v>8.8486119518129847E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.075350406316545</v>
+        <v>21.148948780707514</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.95945589708538</v>
+        <v>24.049790288132929</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12399,14 +12399,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.1599973622215</v>
+        <v>13.194199609426219</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.62289947373834</v>
+        <v>22.705337377269917</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12449,21 +12449,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21267834.051227834</v>
+        <v>21348020.214309759</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.478173910279947</v>
+        <v>10.514765309782909</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.91208406243627</v>
+        <v>11.956996220062448</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.268709159011568</v>
+        <v>16.330047110145415</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12473,14 +12473,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1608198.8489402533</v>
+        <v>-1608727.0280942917</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90074992270233445</v>
+        <v>-0.90104575510669571</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12512,27 +12512,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>19659635.202287581</v>
+        <v>19739293.186215468</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7502222041074091</v>
+        <v>8.7846097583435849</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.5774239875776122</v>
+        <v>9.613719554676214</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.294379063655775</v>
+        <v>10.334835009815983</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.011334139733938</v>
+        <v>11.055950464955753</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.367959236309233</v>
+        <v>15.42900135503872</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12573,27 +12573,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>20081427.300843094</v>
+        <v>20154604.073277812</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.5428445250833915</v>
+        <v>6.5598490866884989</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5428445250833915</v>
+        <v>6.5598490866884989</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.8952119142090105</v>
+        <v>8.9242072988828962</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.247579303334629</v>
+        <v>11.288565511077293</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.361174037202444</v>
+        <v>15.417150194674242</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12634,27 +12634,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14390563.137043079</v>
+        <v>14438144.160071377</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.6465333645954008</v>
+        <v>7.6722294225160415</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0601342563305014</v>
+        <v>8.0867843206823569</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.5947954889323928</v>
+        <v>9.6295211543494403</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.129456721534282</v>
+        <v>11.172257988016522</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.364566636755839</v>
+        <v>15.423075774856482</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C2181F-2E14-4E27-80D6-FB87F236A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205D19BB-2D37-4ECF-857F-B8699258C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8486119518129847E-2</v>
+        <v>8.9003464727118453E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8990746345419912E-2</v>
+        <v>5.9335643151412314E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>18139.663288799999</v>
+        <v>18032.539293000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5115,10 +5115,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5165,7 +5165,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77457941920859452</v>
+        <v>0.77007706693795697</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.850709180420168</v>
+        <v>10.787637900826388</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8486119518129847E-2</v>
+        <v>8.9003464727118453E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7846097583435849</v>
+        <v>7.9756754285812246</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.743351558294528</v>
+        <v>15.704075354205619</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.334835009815983</v>
+        <v>9.3831475630367347</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.42900135503872</v>
+        <v>13.655717699309236</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10474,11 +10474,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4500013.4150320198</v>
+        <v>-4499593.0527718607</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2056553975780913</v>
+        <v>1.2056361865758638</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12250,17 +12250,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10902748539405206</v>
+        <v>0.1096649282780191</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4101079141886706E-2</v>
+        <v>8.4592786661684904E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2159874840667094E-2</v>
+        <v>9.2698699121463363E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12301,17 +12301,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8486119518129847E-2</v>
+        <v>8.9003464727118453E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8990746345419912E-2</v>
+        <v>5.9335643151412314E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8486119518129847E-2</v>
+        <v>8.9003464727118453E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.148948780707514</v>
+        <v>19.355410280911766</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.049790288132929</v>
+        <v>22.014623423839893</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12399,14 +12399,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.194199609426219</v>
+        <v>12.067548997263211</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.705337377269917</v>
+        <v>20.782065621551276</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12449,21 +12449,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21348020.214309759</v>
+        <v>19541485.403074443</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.514765309782909</v>
+        <v>9.6230596938226682</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.956996220062448</v>
+        <v>10.945158602685979</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.330047110145415</v>
+        <v>14.556679284526824</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12473,14 +12473,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1608727.0280942917</v>
+        <v>-1608576.751180172</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90104575510669571</v>
+        <v>-0.90096158521758873</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12512,27 +12512,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>19739293.186215468</v>
+        <v>17932908.651894271</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.7846097583435849</v>
+        <v>7.9756754285812246</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.613719554676214</v>
+        <v>8.7220981086050795</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.334835009815983</v>
+        <v>9.3831475630367347</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.055950464955753</v>
+        <v>10.04419701746839</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.42900135503872</v>
+        <v>13.655717699309236</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12573,27 +12573,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>20154604.073277812</v>
+        <v>18447393.996732898</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.5598490866884989</v>
+        <v>5.9997046135114749</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5598490866884989</v>
+        <v>5.9997046135114749</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.9242072988828962</v>
+        <v>8.1660320759945826</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.288565511077293</v>
+        <v>10.332359538477689</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.417150194674242</v>
+        <v>13.741677897397619</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12634,27 +12634,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14438144.160071377</v>
+        <v>13142152.774770351</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.6722294225160415</v>
+        <v>6.9876900210463493</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0867843206823569</v>
+        <v>7.3609013610582767</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.6295211543494403</v>
+        <v>8.7745898195156578</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.172257988016522</v>
+        <v>10.188278277973041</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.423075774856482</v>
+        <v>13.698697798353427</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205D19BB-2D37-4ECF-857F-B8699258C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12574280-A678-4898-B159-FF3307627DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4188,11 +4199,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9003464727118453E-2</v>
+        <v>8.9812212467193592E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9335643151412314E-2</v>
+        <v>5.9874808311462413E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5020,7 +5031,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>18032.539293000002</v>
+        <v>17853.999299999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5069,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5236,7 +5247,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77007706693795697</v>
+        <v>0.76314261926696503</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5263,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.787637900826388</v>
+        <v>10.690496570784784</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5295,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9003464727118453E-2</v>
+        <v>8.9812212467193592E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5325,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.9756754285812246</v>
+        <v>8.0009039508964399</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.704075354205619</v>
+        <v>15.754438193265003</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.3831475630367347</v>
+        <v>9.412828177525224</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.655717699309236</v>
+        <v>13.699511472404351</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10474,11 +10485,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4499593.0527718607</v>
+        <v>-4495524.2601956883</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2056361865758638</v>
+        <v>1.2054502384291048</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12250,17 +12261,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1096649282780191</v>
+        <v>0.11066142052899242</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4592786661684904E-2</v>
+        <v>8.5361455895506894E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2698699121463363E-2</v>
+        <v>9.3541024346130125E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12301,17 +12312,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9003464727118453E-2</v>
+        <v>8.9812212467193592E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9335643151412314E-2</v>
+        <v>5.9874808311462413E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9003464727118453E-2</v>
+        <v>8.9812212467193592E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12371,14 +12382,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.355410280911766</v>
+        <v>19.406530708160059</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.014623423839893</v>
+        <v>22.079622319181606</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12399,14 +12410,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.067548997263211</v>
+        <v>12.087350122066796</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.782065621551276</v>
+        <v>20.840487034217542</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12449,21 +12460,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19541485.403074443</v>
+        <v>19599182.277560182</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6230596938226682</v>
+        <v>9.648475580949027</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.945158602685979</v>
+        <v>10.977474541269967</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.556679284526824</v>
+        <v>14.599658355988625</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12473,14 +12484,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1608576.751180172</v>
+        <v>-1607122.1829410791</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90096158521758873</v>
+        <v>-0.90014688358427297</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12512,27 +12523,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>17932908.651894271</v>
+        <v>17992060.094619103</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9756754285812246</v>
+        <v>8.0009039508964399</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7220981086050795</v>
+        <v>8.7483286973647534</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.3831475630367347</v>
+        <v>9.412828177525224</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.04419701746839</v>
+        <v>10.077327657685695</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.655717699309236</v>
+        <v>13.699511472404351</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12573,27 +12584,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18447393.996732898</v>
+        <v>18499252.30749594</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9997046135114749</v>
+        <v>6.0095492720965558</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9997046135114749</v>
+        <v>6.0095492720965558</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.1660320759945826</v>
+        <v>8.1854772888975873</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.332359538477689</v>
+        <v>10.361405305698618</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.741677897397619</v>
+        <v>13.780307754977235</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12634,27 +12645,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13142152.774770351</v>
+        <v>13174357.146812381</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.9876900210463493</v>
+        <v>7.0052266114964983</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.3609013610582767</v>
+        <v>7.3789389847306541</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7745898195156578</v>
+        <v>8.7991527332114057</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.188278277973041</v>
+        <v>10.219366481692155</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>13.698697798353427</v>
+        <v>13.739909613690793</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12574280-A678-4898-B159-FF3307627DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54814E9F-7080-4313-B9BE-21CC95339ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45634</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1785399930</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3847,7 +3872,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>28575291</v>
@@ -3867,7 +3892,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>1156268+1199587</f>
@@ -3889,7 +3914,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>1568223</v>
@@ -3909,7 +3934,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>388601</v>
@@ -3929,7 +3954,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>200260</v>
@@ -3949,7 +3974,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>5396777-4992273</f>
@@ -3971,7 +3996,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <f>694647+21399+252318+162011</f>
@@ -3993,7 +4018,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <f>1431077+99196</f>
@@ -4031,7 +4056,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4047,7 +4072,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4079,7 +4104,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4127,7 +4152,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4143,7 +4168,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4159,7 +4184,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4175,7 +4200,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.84</v>
@@ -4195,15 +4220,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9812212467193592E-2</v>
+        <v>8.9817813396453866E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9874808311462413E-2</v>
+        <v>5.987854226430258E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4244,21 +4269,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <f>1945896+4729233</f>
@@ -4271,7 +4296,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4281,7 +4306,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <f>21825+216230+10353472+198861</f>
@@ -4295,7 +4320,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <f>5944162+3848095</f>
@@ -4308,7 +4333,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>91072</v>
@@ -4320,7 +4345,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>33867</v>
@@ -4333,7 +4358,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4343,7 +4368,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>9296608</v>
@@ -4356,7 +4381,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4364,24 +4389,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>31969</v>
@@ -4394,7 +4419,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4405,7 +4430,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>1468712</v>
@@ -4418,7 +4443,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <f>6872+408159</f>
@@ -4432,7 +4457,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4443,7 +4468,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4454,7 +4479,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59">
         <f>78998+213498</f>
@@ -4467,7 +4492,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <f>677520+99664</f>
@@ -4477,12 +4502,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>314605</v>
@@ -4491,12 +4516,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4504,12 +4529,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>6295147+1828283</f>
@@ -4523,7 +4548,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4534,7 +4559,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>813309</v>
@@ -4546,7 +4571,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>382679</v>
@@ -4559,7 +4584,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>88283</v>
@@ -4571,7 +4596,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>1143514</v>
@@ -4579,7 +4604,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>145305</v>
@@ -4587,13 +4612,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4607,7 +4632,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>6159723</v>
@@ -4615,7 +4640,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>1202523</v>
@@ -4623,19 +4648,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>8125280</v>
@@ -4643,7 +4668,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>20378212</v>
@@ -4651,19 +4676,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4671,10 +4696,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4682,18 +4707,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4702,20 +4727,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4733,7 +4758,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4754,7 +4779,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4775,7 +4800,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4793,7 +4818,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4814,7 +4839,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4832,7 +4857,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4850,7 +4875,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4978,13 +5003,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4993,47 +5018,47 @@
         <v>10</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>17853.999299999999</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5056,16 +5081,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5080,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5090,40 +5115,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5136,29 +5161,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5168,12 +5193,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5183,29 +5208,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.79500000000000004</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5213,7 +5238,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5224,58 +5249,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.3308514744086254E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76314261926696503</v>
+        <v>0.7630950306243075</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.690496570784784</v>
+        <v>10.68982992446168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.0979200200663114E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5284,18 +5309,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>5.7179681856567195E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9812212467193592E-2</v>
+        <v>8.9817813396453866E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,62 +5330,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.0009039508964399</v>
+        <v>8.0016279240276234</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.754438193265003</v>
+        <v>15.75586853352937</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.412828177525224</v>
-      </c>
-      <c r="G29" s="274">
+        <v>9.4136799106207327</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.699511472404351</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>13.700755246547279</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5370,25 +5395,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5398,7 +5423,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5408,14 +5433,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5425,7 +5450,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5440,14 +5465,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6400,12 +6425,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6432,16 +6457,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6459,7 +6484,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6492,7 +6517,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6503,7 +6528,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6655,7 +6680,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6706,7 +6731,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6757,7 +6782,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6808,7 +6833,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6859,7 +6884,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6910,7 +6935,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6961,7 +6986,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7012,7 +7037,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7063,7 +7088,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7114,7 +7139,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7165,7 +7190,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7216,7 +7241,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7267,7 +7292,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7318,7 +7343,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7369,7 +7394,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7420,7 +7445,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7471,7 +7496,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7522,7 +7547,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7573,7 +7598,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7726,7 +7751,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7777,7 +7802,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7879,7 +7904,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8083,7 +8108,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8134,7 +8159,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8185,7 +8210,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8236,7 +8261,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8287,7 +8312,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8338,7 +8363,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8356,7 +8381,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8407,7 +8432,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8458,7 +8483,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8509,7 +8534,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8560,7 +8585,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8611,7 +8636,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8662,7 +8687,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8713,7 +8738,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8730,50 +8755,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.29625011901743165</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.2200851042619494</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8782,11 +8807,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.25523838683635908</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.29625011901743165</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8833,167 +8858,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.25523838683635908</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>9.2353987392492579E-2</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.55694169352477019</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.28480316199990019</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.41262283921206094</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9001,112 +9027,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1577210036539011</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.28480316199990019</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.39116324677825692</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1577210036539011</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.39116324677825692</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.8942473353246914</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.17944919145343402</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.12090612594798143</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9669,7 +9885,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10352,6 +10570,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10391,8 +10610,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10410,7 +10629,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10425,7 +10644,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10439,7 +10658,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10449,7 +10668,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10467,10 +10686,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10479,22 +10698,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-4495524.2601956883</v>
+        <f>(E49-I49-E53)</f>
+        <v>-4204595.6499999985</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2054502384291048</v>
+        <v>1.1921544916216011</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10504,8 +10724,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10517,7 +10738,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10535,7 +10756,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10554,32 +10775,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10596,7 +10817,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10607,7 +10828,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10624,7 +10845,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10635,7 +10856,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10652,7 +10873,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10663,7 +10884,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10680,7 +10901,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10691,7 +10912,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10708,7 +10929,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10718,7 +10939,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10740,7 +10961,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10762,7 +10983,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10783,7 +11004,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10808,7 +11029,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10835,7 +11056,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10856,7 +11077,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10873,7 +11094,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10885,13 +11106,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10913,7 +11134,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10933,7 +11154,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10942,7 +11163,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10962,7 +11183,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10975,7 +11196,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10995,7 +11216,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11041,7 +11262,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11050,7 +11271,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11066,7 +11287,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11076,7 +11297,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11093,7 +11314,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11103,7 +11324,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11120,7 +11341,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11130,7 +11351,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11150,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11160,7 +11381,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11177,7 +11398,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11187,7 +11408,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11213,7 +11434,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11240,7 +11461,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11267,7 +11488,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11288,7 +11509,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11309,7 +11530,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11330,7 +11551,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11351,7 +11572,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11368,7 +11589,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11386,7 +11607,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11405,7 +11626,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11424,7 +11645,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11441,7 +11662,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11454,7 +11675,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11471,7 +11692,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11484,7 +11705,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11501,7 +11722,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11528,7 +11749,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11544,14 +11765,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11568,7 +11789,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11598,7 +11819,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11609,14 +11830,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11624,30 +11845,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11664,11 +11885,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11678,7 +11899,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11699,7 +11920,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11720,7 +11941,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11741,7 +11962,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11756,7 +11977,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11787,11 +12008,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11801,7 +12022,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11822,7 +12043,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11837,7 +12058,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11859,21 +12080,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11883,23 +12104,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11920,7 +12141,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11950,7 +12171,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11971,7 +12192,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12001,7 +12222,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12031,7 +12252,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12062,7 +12283,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12089,12 +12310,12 @@
         <v>1.1105657937696694E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12124,7 +12345,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12154,7 +12375,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12184,7 +12405,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12205,7 +12426,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12236,7 +12457,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12257,28 +12478,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11066142052899242</v>
+        <v>0.11066832167050977</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5361455895506894E-2</v>
+        <v>8.5366779263709169E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3541024346130125E-2</v>
+        <v>9.3546857814050602E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12308,21 +12529,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9812212467193592E-2</v>
+        <v>8.9817813396453866E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9874808311462413E-2</v>
+        <v>5.987854226430258E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9812212467193592E-2</v>
+        <v>8.9817813396453866E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12339,29 +12560,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12378,24 +12599,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.406530708160059</v>
+        <v>19.408216901241843</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.079622319181606</v>
+        <v>22.081588222398885</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12406,18 +12627,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.087350122066796</v>
+        <v>12.088316855722161</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.840487034217542</v>
+        <v>20.842322274569536</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12436,69 +12657,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19599182.277560182</v>
+        <v>19600927.329850409</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.648475580949027</v>
+        <v>9.6493139169205122</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.977474541269967</v>
+        <v>10.978451942613447</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.599658355988625</v>
+        <v>14.600958265693524</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1607122.1829410791</v>
+        <v>-1607222.4073694944</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90014688358427297</v>
+        <v>-0.90020301914624501</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12519,31 +12740,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>17992060.094619103</v>
+        <v>17993704.922480915</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0009039508964399</v>
+        <v>8.0016279240276234</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7483286973647534</v>
+        <v>8.7491108977742673</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.412828177525224</v>
+        <v>9.4136799106207327</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.077327657685695</v>
+        <v>10.0782489234672</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.699511472404351</v>
+        <v>13.700755246547279</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12553,58 +12774,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18499252.30749594</v>
+        <v>18500881.375677541</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0095492720965558</v>
+        <v>6.0100299095792327</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0095492720965558</v>
+        <v>6.0100299095792327</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.1854772888975873</v>
+        <v>8.1861738270422713</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.361405305698618</v>
+        <v>10.36231774450531</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.780307754977235</v>
+        <v>13.781521266773447</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12614,58 +12835,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13174357.146812381</v>
+        <v>13175484.482154541</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.0052266114964983</v>
+        <v>7.005828916803428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.3789389847306541</v>
+        <v>7.37957040367675</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7991527332114057</v>
+        <v>8.799926868831502</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.219366481692155</v>
+        <v>10.220283333986256</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>13.739909613690793</v>
+        <v>13.741138256660363</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12674,7 +12895,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12683,6 +12904,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54814E9F-7080-4313-B9BE-21CC95339ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBEEC6F-27ED-45DE-869A-A441D66ECA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.79500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10773556748225227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3308514744086254E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1105657937696694E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0669041048412063E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0979200200663114E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7179681856567195E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45634</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1785399930</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3934,7 +3097,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>388601</v>
@@ -4072,7 +3235,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4168,7 +3331,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4200,7 +3363,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.84</v>
@@ -4220,15 +3383,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9817813396453866E-2</v>
+        <v>9.0170092372051674E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.987854226430258E-2</v>
+        <v>6.0113394914701128E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4269,13 +3432,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4345,7 +3508,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>33867</v>
@@ -4358,7 +3521,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4468,7 +3631,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4479,7 +3642,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59">
         <f>78998+213498</f>
@@ -4668,7 +3831,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>20378212</v>
@@ -4688,7 +3851,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4696,10 +3859,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4709,16 +3872,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4727,10 +3890,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4779,7 +3942,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4800,7 +3963,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4818,7 +3981,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4857,7 +4020,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4875,7 +4038,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4961,8 +4124,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5003,62 +4166,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>17853.999299999999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>17782.583302800002</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5081,16 +4244,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5105,7 +4268,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5115,40 +4278,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5161,29 +4324,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5193,12 +4356,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5206,9 +4369,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5216,91 +4379,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.79500000000000004</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.17944919145343405</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.10773556748225227</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.41262283921206094</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>7.3308514744086254E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.73750626657583851</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>1.1105657937696694E-2</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.10039892300252143</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7630950306243075</v>
+        <v>0.76011375015092253</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.68982992446168</v>
+        <v>10.64806660542718</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.0979200200663114E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>1.1105657937696694E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5309,18 +4472,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>5.7179681856567195E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>2.2084858138359809E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9817813396453866E-2</v>
+        <v>9.0170092372051674E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5330,62 +4493,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.0016279240276234</v>
+        <v>8.0150401320929348</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.75586853352937</v>
+        <v>15.782579630028625</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.4136799106207327</v>
-      </c>
-      <c r="G29" s="278">
+        <v>9.429458978932864</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.700755246547279</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>13.723982286981414</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5395,7 +4558,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5406,14 +4569,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5423,7 +4586,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5433,14 +4596,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5450,7 +4613,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5465,14 +4628,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6416,7 +5579,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6430,7 +5592,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6457,16 +5619,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6484,7 +5646,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6517,7 +5679,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6884,7 +6046,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6935,7 +6097,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6986,7 +6148,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7037,7 +6199,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7139,7 +6301,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7292,7 +6454,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7802,7 +6964,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8312,7 +7474,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8363,7 +7525,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8432,7 +7594,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8636,7 +7798,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8738,7 +7900,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8756,14 +7918,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.2200851042619494</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.73750626657583851</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8807,7 +7969,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8858,7 +8020,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8909,7 +8071,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8960,7 +8122,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8977,7 +8139,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9177,11 +8339,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9227,7 +8389,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9277,7 +8439,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10781,7 +9943,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10939,7 +10101,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11351,7 +10513,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11819,7 +10981,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11833,11 +10995,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11848,11 +11010,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11864,11 +11026,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11885,7 +11047,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11962,7 +11124,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12008,7 +11170,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12043,7 +11205,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12082,19 +11244,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12104,18 +11266,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12192,7 +11354,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12222,7 +11384,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12252,7 +11414,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12315,7 +11477,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12345,7 +11507,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12426,7 +11588,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12457,7 +11619,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12478,28 +11640,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11066832167050977</v>
+        <v>0.1111023794761383</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5366779263709169E-2</v>
+        <v>8.5701600613861201E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3546857814050602E-2</v>
+        <v>9.3913762662821157E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12529,21 +11691,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9817813396453866E-2</v>
+        <v>9.0170092372051674E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.987854226430258E-2</v>
+        <v>6.0113394914701128E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9817813396453866E-2</v>
+        <v>9.0170092372051674E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12565,24 +11727,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12599,24 +11761,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.408216901241843</v>
+        <v>19.436353061547898</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.081588222398885</v>
+        <v>22.116588021018003</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12627,18 +11789,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.088316855722161</v>
+        <v>12.100583737886799</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.842322274569536</v>
+        <v>20.874077314049202</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12657,14 +11819,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12681,21 +11843,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19600927.329850409</v>
+        <v>19631995.226886768</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6493139169205122</v>
+        <v>9.6633025612453061</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.978451942613447</v>
+        <v>10.995853028226996</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.600958265693524</v>
+        <v>14.624101102784701</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12705,14 +11867,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1607222.4073694944</v>
+        <v>-1607072.0707268715</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90020301914624501</v>
+        <v>-0.90011881580328701</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12744,27 +11906,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>17993704.922480915</v>
+        <v>18024923.156159896</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0016279240276234</v>
+        <v>8.0150401320929348</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7491108977742673</v>
+        <v>8.7631837454420189</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.4136799106207327</v>
+        <v>9.429458978932864</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.0782489234672</v>
+        <v>10.095734212423709</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.700755246547279</v>
+        <v>13.723982286981414</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12774,21 +11936,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12801,31 +11963,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18500881.375677541</v>
+        <v>18529069.032060251</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0100299095792327</v>
+        <v>6.0161287180061365</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0100299095792327</v>
+        <v>6.0161287180061365</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.1861738270422713</v>
+        <v>8.1971171646846077</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.36231774450531</v>
+        <v>10.378105611363079</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.781521266773447</v>
+        <v>13.802518579172279</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12835,21 +11997,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12862,31 +12024,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13175484.482154541</v>
+        <v>13193491.718844233</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.005828916803428</v>
+        <v>7.0155844250495356</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.37957040367675</v>
+        <v>7.3896562317240777</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.799926868831502</v>
+        <v>8.813288071808735</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.220283333986256</v>
+        <v>10.236919911893395</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>13.741138256660363</v>
+        <v>13.763250433076847</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12895,7 +12057,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBEEC6F-27ED-45DE-869A-A441D66ECA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC63333-E4ED-42F6-A667-3F9376AC3840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45634</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1785399930</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3097,7 +3117,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>388601</v>
@@ -3201,9 +3221,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3219,7 +3239,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3235,7 +3255,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3250,10 +3270,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3265,9 +3286,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3314,10 +3335,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3331,9 +3353,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3347,7 +3369,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3363,7 +3385,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.84</v>
@@ -3383,15 +3405,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0170092372051674E-2</v>
+        <v>9.0345886391653141E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0113394914701128E-2</v>
+        <v>6.0230590927768765E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3432,13 +3454,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3459,7 +3481,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3469,7 +3491,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <f>21825+216230+10353472+198861</f>
@@ -3508,7 +3530,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>33867</v>
@@ -3521,7 +3543,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3557,7 +3579,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3631,7 +3653,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3642,7 +3664,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <f>78998+213498</f>
@@ -3697,7 +3719,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>6295147+1828283</f>
@@ -3831,7 +3853,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>20378212</v>
@@ -3851,7 +3873,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3859,10 +3881,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3870,7 +3892,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3878,10 +3900,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3903,7 +3925,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3942,7 +3964,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3963,7 +3985,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3981,7 +4003,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4020,7 +4042,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4038,7 +4060,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4061,28 +4083,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4124,8 +4151,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4166,7 +4193,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4178,15 +4205,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.9600000000000009</v>
+        <v>9.94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4206,7 +4233,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4219,7 +4246,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>17782.583302800002</v>
+        <v>17746.875304200003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4253,7 +4280,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4268,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4278,40 +4305,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4324,29 +4351,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4356,12 +4383,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4371,7 +4398,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4379,21 +4406,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="276">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.17944919145343405</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4401,69 +4428,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.41262283921206094</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.73750626657583851</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.10039892300252143</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76011375015092253</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.64806660542718</v>
+        <v>10.627347716008822</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4472,18 +4499,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.2084858138359809E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.0170092372051674E-2</v>
+        <v>9.0345886391653141E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4493,40 +4520,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.0150401320929348</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>15.782579630028625</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.429458978932864</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.723982286981414</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4534,21 +4561,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4558,25 +4585,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4586,7 +4613,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4596,14 +4623,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4613,7 +4640,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4628,14 +4655,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5535,27 +5562,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5587,12 +5614,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5619,16 +5646,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5646,7 +5673,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5679,7 +5706,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5690,7 +5717,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6046,7 +6073,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6097,7 +6124,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6148,7 +6175,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6199,7 +6226,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6301,7 +6328,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6454,7 +6481,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6709,7 +6736,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6760,7 +6787,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6814,15 +6841,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>49387019</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6862,50 +6889,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>36711290</v>
+        <f>Fin_Analysis!C13</f>
+        <v>10790388</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6913,50 +6940,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>10790388</v>
+        <f>Fin_Analysis!C18</f>
+        <v>9296608</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6964,101 +6991,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>9296608</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>19380410</v>
+        <f>Fin_Analysis!I15</f>
+        <v>1288819</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7066,101 +7093,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>8125280</v>
+        <f>Fin_Analysis!I34</f>
+        <v>7362246</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>1288819</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>8651065</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7168,50 +7195,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>7362246</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7219,50 +7246,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>8651065</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7270,50 +7297,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>21881329</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7321,272 +7348,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>1503117</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>29853029</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>19533990</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.12249523043931879</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>29853029</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.12249523043931879</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.78453465804081768</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.80031064834571064</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.10773556748225227</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.10269002830107481</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.78453465804081768</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.80031064834571064</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>1.1105657937696694E-2</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>4.9194081284871169E-2</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7594,50 +7621,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.10773556748225227</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.0669041048412063E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.10269002830107481</v>
+        <f t="shared" si="37"/>
+        <v>8.2828532112136002E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7645,50 +7672,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>1.1105657937696694E-2</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>7.3308514744086254E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>4.9194081284871169E-2</v>
+        <f t="shared" si="38"/>
+        <v>3.7353615551820193E-3</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7696,50 +7723,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.0669041048412063E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.0979200200663114E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>8.2828532112136002E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.4612100262064096E-2</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7747,221 +7774,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>7.3308514744086254E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>6.764502381574955E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.7353615551820193E-3</v>
+        <f t="shared" si="40"/>
+        <v>2.1174927039883665E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.0979200200663114E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.4612100262064096E-2</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>6.764502381574955E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.1174927039883665E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.29625011901743165</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.73750626657583851</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.25523838683635908</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7969,522 +7996,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.29625011901743165</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>9.2353987392492579E-2</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.25523838683635908</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>9.2353987392492579E-2</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.28480316199990019</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.41262283921206094</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1577210036539011</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.39116324677825692</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.28480316199990019</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1577210036539011</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.39116324677825692</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.8942473353246914</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.17944919145343402</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.12090612594798143</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9044,12 +8975,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9731,27 +9658,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9865,13 +9795,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-4204595.6499999985</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.1921544916216011</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9891,9 +9821,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9943,7 +9873,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9990,7 +9920,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10018,7 +9948,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10101,7 +10031,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10123,7 +10053,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10191,7 +10121,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10513,7 +10443,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10650,7 +10580,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10937,9 +10867,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10957,13 +10887,13 @@
         <f>MAX(D4,0)</f>
         <v>1503117</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>1503117</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10981,7 +10911,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11047,7 +10977,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11082,7 +11012,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11103,7 +11033,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11124,7 +11054,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11139,7 +11069,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11170,7 +11100,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11184,7 +11114,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11205,7 +11135,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11220,7 +11150,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11242,7 +11172,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11250,11 +11180,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11282,7 +11212,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11354,7 +11284,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11384,7 +11314,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11414,7 +11344,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11472,12 +11402,12 @@
         <v>1.1105657937696694E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11507,7 +11437,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11537,7 +11467,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11588,7 +11518,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11619,7 +11549,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11640,28 +11570,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1111023794761383</v>
+        <v>0.11131898271299437</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5701600613861201E-2</v>
+        <v>8.5868682940848595E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3913762662821157E-2</v>
+        <v>9.4096855275904834E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11691,21 +11621,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0170092372051674E-2</v>
+        <v>9.0345886391653141E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0113394914701128E-2</v>
+        <v>6.0230590927768765E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0170092372051674E-2</v>
+        <v>9.0345886391653141E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11722,27 +11652,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11761,24 +11691,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.436353061547898</v>
+        <v>19.45010022550796</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.116588021018003</v>
+        <v>22.133722468660423</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11789,18 +11719,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.100583737886799</v>
+        <v>12.106518776358023</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.874077314049202</v>
+        <v>20.889610005672129</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11819,14 +11749,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11839,49 +11769,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19631995.226886768</v>
+        <v>19647204.778830841</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6633025612453061</v>
+        <v>9.6701373313425787</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.995853028226996</v>
+        <v>11.004371876966994</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.624101102784701</v>
+        <v>14.635430874557136</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-1607072.0707268715</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.90011881580328701</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11904,29 +11834,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>18024923.156159896</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0150401320929348</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7631837454420189</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>9.429458978932864</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.095734212423709</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.723982286981414</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11936,21 +11866,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11963,31 +11893,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18529069.032060251</v>
+        <v>18542856.770363834</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0161287180061365</v>
+        <v>6.0190794810571289</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0161287180061365</v>
+        <v>6.0190794810571289</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.1971171646846077</v>
+        <v>8.2024537926658443</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.378105611363079</v>
+        <v>10.385828104274561</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.802518579172279</v>
+        <v>13.812789225461669</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11997,21 +11927,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12024,31 +11954,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13193491.718844233</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>7.0155844250495356</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>7.3896562317240777</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>8.813288071808735</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>10.236919911893395</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>13.763250433076847</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12057,7 +11987,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC63333-E4ED-42F6-A667-3F9376AC3840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB5F1A4-BBBA-45FA-861E-443E3966887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45634</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1785399930</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,429 +3045,433 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>36423236</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>32043306</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>28575291</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>25644599</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>1156268+1199587</f>
         <v>2355855</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>831593+1072973</f>
         <v>1904566</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>1568223</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>1385962</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>388601</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>265410</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>200260</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>89770</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>5396777-4992273</f>
         <v>404504</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>4505286-2928945</f>
         <v>1576341</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <f>694647+21399+252318+162011</f>
         <v>1130375</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <f>582889+18815+190402+152526</f>
         <v>944632</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <f>1431077+99196</f>
         <v>1530273</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <f>1300700+112152</f>
         <v>1412852</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>27505690</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>21881329</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>1503117</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.84</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0345886391653141E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>8.9911422653045331E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0230590927768765E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>5.9940948435363565E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3543,7 +3555,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3573,7 +3585,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3585,7 +3597,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3606,8 +3618,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3664,7 +3676,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <f>78998+213498</f>
@@ -3686,7 +3698,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3700,7 +3712,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3713,7 +3725,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3768,16 +3780,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>88283</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3805,7 +3817,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3841,21 +3853,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214">
         <v>8125280</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>268</v>
+      </c>
+      <c r="C83" s="214">
         <v>20378212</v>
       </c>
     </row>
@@ -3873,20 +3885,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3931,12 +3943,12 @@
         <f>C25</f>
         <v>36423236</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>36423236</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>36423236</v>
       </c>
@@ -3949,75 +3961,75 @@
         <f>C26</f>
         <v>28575291</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*80%</f>
         <v>29138588.800000001</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*79.5%</f>
         <v>28956472.620000001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>3924078</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>3924078.0000000005</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>388601</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>388601</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>399898</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>399897.99999999994</v>
       </c>
@@ -4030,12 +4042,12 @@
         <f>MAX(C31,0)</f>
         <v>404504</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>404504</v>
       </c>
@@ -4048,12 +4060,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>267013.33333333331</v>
       </c>
@@ -4062,16 +4074,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.84</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>D44</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.84</v>
       </c>
@@ -4152,7 +4164,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4204,11 +4216,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>9.94</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>9.98</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4246,7 +4258,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>17746.875304200003</v>
+        <v>17818.291301400001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4256,11 +4268,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4282,11 +4294,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -4294,8 +4306,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4304,10 +4316,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4315,7 +4327,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4323,13 +4335,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4338,12 +4350,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4353,7 +4365,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4364,7 +4376,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4372,13 +4384,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4388,129 +4400,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.17944919145343405</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.41262283921206094</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.73750626657583851</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.76230055138665787</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.627347716008822</v>
+        <v>10.678700448330714</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.96013714939512762</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.2084858138359809E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.0345886391653141E-2</v>
+        <v>8.9911422653045331E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4527,10 +4539,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4538,22 +4550,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>7.9977051812222308</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>15.748224163208787</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>9.4090649190849778</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>13.694107968007643</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4561,23 +4573,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4585,9 +4597,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4595,17 +4607,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4613,26 +4625,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4640,9 +4652,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4655,16 +4667,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5616,10 +5628,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5645,16 +5657,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5668,11 +5680,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5697,7 +5709,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5705,7 +5717,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5769,47 +5781,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>36423236</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>32043306</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5871,47 +5883,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>28575291</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>25644599</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5922,47 +5934,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>7847945</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>6398707</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5973,47 +5985,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2355855</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1904566</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6024,47 +6036,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>1568223</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>1385962</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6073,49 +6085,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>119693.33333333333</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6123,50 +6135,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>9.3263961798032535E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6174,50 +6186,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3656853.6666666665</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2988485.6666666665</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6225,50 +6237,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.2236477181252445</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6279,47 +6291,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>404504</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>1576341</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6328,49 +6340,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>388601</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>265410</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6381,47 +6393,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.103444735113596E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>2.9479854544346953E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6432,47 +6444,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>1130375</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>944632</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6481,49 +6493,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.201364755179908E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>4.4091954806411052E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6534,47 +6546,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1530273</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1412852</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6585,47 +6597,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2463850.6666666665</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>678514.66666666651</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6636,47 +6648,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.0733767861812169E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>1.588119527991275E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6687,7 +6699,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1847888</v>
       </c>
@@ -6735,50 +6747,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>2.6312415747338309</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6842,7 +6854,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>49387019</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6895,43 +6907,43 @@
         <f>Fin_Analysis!C13</f>
         <v>10790388</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6946,43 +6958,43 @@
         <f>Fin_Analysis!C18</f>
         <v>9296608</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6991,49 +7003,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>27505690</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7048,43 +7060,43 @@
         <f>Fin_Analysis!I15</f>
         <v>1288819</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7099,43 +7111,43 @@
         <f>Fin_Analysis!I34</f>
         <v>7362246</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7199,45 +7211,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>21881329</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7250,45 +7262,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>1503117</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7303,43 +7315,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7401,47 +7413,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.12249523043931879</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7450,7 +7462,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7470,47 +7482,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.80031064834571064</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7519,49 +7531,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.10269002830107481</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7572,47 +7584,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>4.9194081284871169E-2</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7623,47 +7635,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>8.2828532112136002E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7674,47 +7686,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.7353615551820193E-3</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7723,49 +7735,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.4612100262064096E-2</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7776,47 +7788,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.764502381574955E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>2.1174927039883665E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7825,9 +7837,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7842,50 +7856,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>0.73750626657583851</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7894,49 +7908,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.29625011901743165</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7945,49 +7959,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.25523838683635908</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7996,49 +8010,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>9.2353987392492579E-2</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8047,7 +8061,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8064,49 +8078,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.41262283921206094</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8116,47 +8130,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.28480316199990019</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8166,47 +8180,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.1577210036539011</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.39116324677825692</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8216,47 +8230,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8264,149 +8278,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>0.17944919145343402</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>0.12090612594798143</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9702,8 +9716,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9739,8 +9753,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>21881329</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9752,8 +9766,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>20378212</v>
       </c>
       <c r="K3" s="24"/>
@@ -9763,8 +9777,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>1503117</v>
       </c>
       <c r="E4" s="37"/>
@@ -9795,13 +9809,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-4204595.6499999985</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.1921544916216011</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9821,9 +9835,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9851,11 +9865,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9898,7 +9912,7 @@
         <f>Inputs!C48</f>
         <v>6675129</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9926,7 +9940,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9954,7 +9968,7 @@
         <f>Inputs!C50</f>
         <v>10790388</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9982,7 +9996,7 @@
         <f>Inputs!C51</f>
         <v>9792257</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9995,7 +10009,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10010,7 +10024,7 @@
         <f>Inputs!C52</f>
         <v>91072</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10037,7 +10051,7 @@
         <f>Inputs!C53</f>
         <v>33867</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10059,7 +10073,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10081,7 +10095,7 @@
         <f>Inputs!C55</f>
         <v>9296608</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10102,7 +10116,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10110,7 +10124,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10127,7 +10141,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10135,7 +10149,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10154,7 +10168,7 @@
         <f>Inputs!C58</f>
         <v>31969</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10175,7 +10189,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10340,7 +10354,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>19380410</v>
       </c>
@@ -10369,7 +10383,7 @@
         <f>Inputs!C60</f>
         <v>1468712</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10395,7 +10409,7 @@
         <f>Inputs!C61</f>
         <v>415031</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10422,7 +10436,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10449,7 +10463,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10465,7 +10479,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10479,7 +10493,7 @@
         <f>Inputs!C64</f>
         <v>292496</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10506,7 +10520,7 @@
         <f>Inputs!C65</f>
         <v>777184</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10514,7 +10528,7 @@
         <f t="shared" si="1"/>
         <v>77718.400000000009</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10532,7 +10546,7 @@
         <f>Inputs!C66</f>
         <v>314605</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10540,7 +10554,7 @@
         <f t="shared" si="1"/>
         <v>62921</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10559,7 +10573,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10567,7 +10581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10586,7 +10600,7 @@
         <f>Inputs!C68</f>
         <v>8123430</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10607,7 +10621,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10628,7 +10642,7 @@
         <f>Inputs!C70</f>
         <v>813309</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10649,7 +10663,7 @@
         <f>Inputs!C71</f>
         <v>382679</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10670,7 +10684,7 @@
         <f>Inputs!C72</f>
         <v>88283</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10816,8 +10830,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>8125280</v>
       </c>
       <c r="J48" s="8"/>
@@ -10843,8 +10857,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>27505690</v>
       </c>
       <c r="J49" s="87"/>
@@ -10867,9 +10881,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10887,13 +10901,13 @@
         <f>MAX(D4,0)</f>
         <v>1503117</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>1503117</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10914,7 +10928,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11014,7 +11028,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>8143841</v>
       </c>
@@ -11022,7 +11036,7 @@
         <f t="shared" si="2"/>
         <v>0.73768828492599503</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>6007616.1000000006</v>
       </c>
@@ -11053,11 +11067,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>8651065</v>
@@ -11134,12 +11148,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>18854625</v>
       </c>
@@ -11218,17 +11232,17 @@
         <f>Data!C6</f>
         <v>36423236</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>36423236</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>36423236</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11239,23 +11253,23 @@
         <f>Data!C8</f>
         <v>28575291</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>29138588.800000001</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.8</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>28956472.620000001</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.79500000000000004</v>
       </c>
@@ -11265,48 +11279,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>7847945</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>7284647.1999999993</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>7466763.379999999</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>3924078</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.10773556748225227</v>
       </c>
@@ -11320,54 +11334,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>7.3308514744086254E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>3656853.6666666665</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>3093555.8666666653</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>8.4933581043339076E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>3275672.046666665</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>8.9933581043339067E-2</v>
       </c>
@@ -11381,55 +11395,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>404504</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>404504</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>404504</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>388601</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>388601</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>388601</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.0669041048412063E-2</v>
       </c>
@@ -11437,29 +11451,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>399898</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.0979200200663114E-2</v>
       </c>
@@ -11469,27 +11483,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>2463850.6666666665</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>6.764502381574955E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1900552.8666666653</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>5.2179681856567198E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>2082669.046666665</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>5.7179681856567195E-2</v>
       </c>
@@ -11499,49 +11513,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1847888</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>5.0733767861812169E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1425414.649999999</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.9134761392425402E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1562001.7849999988</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>4.2884761392425391E-2</v>
       </c>
@@ -11551,69 +11565,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0349994804805442</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.79837274890001764</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.87487501189719374</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11131898271299437</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.11078366158948638</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5868682940848595E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.5455749596456104E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4096855275904834E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>9.3644353527710306E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.84</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.81159461027941082</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.70142674680662276</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.84</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.96013714939512762</v>
       </c>
@@ -11621,23 +11635,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0345886391653141E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.9911422653045331E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0230590927768765E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.9940948435363565E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0345886391653141E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.9911422653045331E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11659,7 +11673,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11682,27 +11696,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.45010022550796</v>
+        <v>19.397535877737024</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.133722468660423</v>
+        <v>22.070228508016584</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11710,27 +11724,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.106518776358023</v>
+        <v>12.080269453897989</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.889610005672129</v>
+        <v>20.831260455694341</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11744,25 +11758,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11773,21 +11787,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19647204.778830841</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>19590843.773638204</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6701373313425787</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>9.6440035605247409</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.004371876966994</v>
-      </c>
-      <c r="I97" s="123">
+        <v>10.972804156902932</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.635430874557136</v>
+        <v>14.593446907636501</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11795,18 +11809,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-1605679.6798596382</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-0.89933893962885847</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11817,46 +11831,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>17985164.093778566</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>7.9977051812222308</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>8.7446646208958825</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>9.4090649190849778</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>10.073465217274073</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>13.694107968007643</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11868,25 +11882,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11897,27 +11911,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18542856.770363834</v>
+        <v>18491062.249185145</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0190794810571289</v>
-      </c>
-      <c r="E103" s="123">
+        <v>6.0060289286126576</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0190794810571289</v>
+        <v>6.0060289286126576</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.2024537926658443</v>
-      </c>
-      <c r="H103" s="123">
+        <v>8.1814234970615693</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.385828104274561</v>
+        <v>10.356818065510479</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.812789225461669</v>
+        <v>13.77420688548381</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11929,25 +11943,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11956,29 +11970,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>13167943.615372</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>7.0018670549174438</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>7.37534677475427</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>8.7952442080732745</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>10.215141641392275</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>13.734157426745726</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11989,14 +12003,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB5F1A4-BBBA-45FA-861E-443E3966887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19190F2D-D2CB-463E-A30C-45AEA2D9C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9911422653045331E-2</v>
+        <v>8.9818617961070185E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9940948435363565E-2</v>
+        <v>5.9879078640713471E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>9.98</v>
+        <v>9.99</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>17818.291301400001</v>
+        <v>17836.145300700002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4307,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76230055138665787</v>
+        <v>0.76308819507868819</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.678700448330714</v>
+        <v>10.689734168602739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9911422653045331E-2</v>
+        <v>8.9818617961070185E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4552,20 +4552,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.9977051812222308</v>
+        <v>7.9937301923821984</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>15.748224163208787</v>
+        <v>15.740317931010647</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.4090649190849778</v>
+        <v>9.404388461626116</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.694107968007643</v>
+        <v>13.687232983487521</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11588,17 +11588,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11078366158948638</v>
+        <v>0.11066931300855731</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5455749596456104E-2</v>
+        <v>8.536754395711918E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3644353527710306E-2</v>
+        <v>9.3547695782477125E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11639,17 +11639,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9911422653045331E-2</v>
+        <v>8.9818617961070185E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9940948435363565E-2</v>
+        <v>5.9879078640713471E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9911422653045331E-2</v>
+        <v>8.9818617961070185E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11709,14 +11709,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.397535877737024</v>
+        <v>19.389050666724128</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.070228508016584</v>
+        <v>22.059788757719584</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11737,14 +11737,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.080269453897989</v>
+        <v>12.07636727218042</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.831260455694341</v>
+        <v>20.82174332441982</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11787,21 +11787,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19590843.773638204</v>
+        <v>19581576.832109712</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6440035605247409</v>
+        <v>9.6397849110150329</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.972804156902932</v>
+        <v>10.967613755932941</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.593446907636501</v>
+        <v>14.586543855335393</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11811,14 +11811,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-1605679.6798596382</v>
+        <v>-1605629.5676454306</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89933893962885847</v>
+        <v>-0.89931087184787251</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11850,27 +11850,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>17985164.093778566</v>
+        <v>17975947.264464281</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9977051812222308</v>
+        <v>7.9937301923821984</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7446646208958825</v>
+        <v>8.7404740391671609</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.4090649190849778</v>
+        <v>9.404388461626116</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.073465217274073</v>
+        <v>10.068302884085071</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.694107968007643</v>
+        <v>13.687232983487521</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11911,27 +11911,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18491062.249185145</v>
+        <v>18482614.279020056</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0060289286126576</v>
+        <v>6.0040888546457758</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0060289286126576</v>
+        <v>6.0040888546457758</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.1814234970615693</v>
+        <v>8.1780876119498913</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.356818065510479</v>
+        <v>10.352086369254007</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.77420688548381</v>
+        <v>13.767913894456678</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11972,27 +11972,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13167943.615372</v>
+        <v>13162470.779247107</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.0018670549174438</v>
+        <v>6.9989095235139871</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.37534677475427</v>
+        <v>7.3722814469064684</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7952442080732745</v>
+        <v>8.7912380367880036</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>10.215141641392275</v>
+        <v>10.210194626669539</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>13.734157426745726</v>
+        <v>13.727573438972099</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19190F2D-D2CB-463E-A30C-45AEA2D9C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D72E739-0316-4963-98D2-42810AD0B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1785399930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1785399930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,445 +3036,446 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>36423236</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>32043306</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>28575291</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>25644599</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>1156268+1199587</f>
         <v>2355855</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>831593+1072973</f>
         <v>1904566</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148">
         <v>1568223</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="148">
         <v>1385962</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
         <v>388601</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>265410</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
         <v>200260</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="148">
         <v>89770</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <f>5396777-4992273</f>
         <v>404504</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>4505286-2928945</f>
         <v>1576341</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <f>694647+21399+252318+162011</f>
         <v>1130375</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <f>582889+18815+190402+152526</f>
         <v>944632</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <f>1431077+99196</f>
         <v>1530273</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <f>1300700+112152</f>
         <v>1412852</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
         <v>27505690</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>21881329</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>21881329</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>1503117</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.84</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9818617961070185E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>8.9798998426985327E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9879078640713471E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>5.9865998951323558E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <f>1945896+4729233</f>
@@ -3489,21 +3484,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <f>21825+216230+10353472+198861</f>
@@ -3513,11 +3508,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <f>5944162+3848095</f>
@@ -3526,11 +3521,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>91072</v>
@@ -3538,11 +3533,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>33867</v>
@@ -3551,21 +3546,21 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>9296608</v>
@@ -3574,36 +3569,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>31969</v>
@@ -3612,22 +3607,22 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>1468712</v>
@@ -3636,11 +3631,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <f>6872+408159</f>
@@ -3650,33 +3645,33 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59">
         <f>78998+213498</f>
@@ -3685,11 +3680,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <f>677520+99664</f>
@@ -3698,13 +3693,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>314605</v>
@@ -3712,26 +3707,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <f>6295147+1828283</f>
@@ -3741,22 +3736,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>813309</v>
@@ -3764,11 +3759,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>382679</v>
@@ -3777,23 +3772,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>88283</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>1143514</v>
@@ -3801,7 +3796,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>145305</v>
@@ -3809,27 +3804,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>19380410</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>6159723</v>
@@ -3837,7 +3832,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>1202523</v>
@@ -3845,77 +3840,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214">
+        <v>264</v>
+      </c>
+      <c r="C82" s="212">
         <v>8125280</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214">
+        <v>265</v>
+      </c>
+      <c r="C83" s="212">
         <v>20378212</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3924,166 +3919,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>36423236</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>36423236</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>36423236</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>28575291</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*80%</f>
         <v>29138588.800000001</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*79.5%</f>
         <v>28956472.620000001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>3924078</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>3924078.0000000005</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>388601</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>388601</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>399898</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>399897.99999999994</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>404504</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>404504</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>267013.33333333331</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.84</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>D44</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.84</v>
       </c>
@@ -4096,32 +4091,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4180,13 +4175,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4197,82 +4192,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0564.HK : 鄭煤機</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="130">
         <v>9.99</v>
       </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
         <v>17836.145300700002</v>
       </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4283,31 +4278,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4316,280 +4311,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.17944919145343405</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.41262283921206094</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.73750626657583851</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76308819507868819</v>
+        <v>0.76325491670270806</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.689734168602739</v>
+        <v>10.692069691354137</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.96013714939512762</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.2084858138359809E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9818617961070185E-2</v>
+        <v>8.9798998426985327E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.9937301923821984</v>
-      </c>
-      <c r="D29" s="128">
+        <v>7.9911968446039872</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.740317931010647</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>15.735312846061174</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.404388461626116</v>
-      </c>
-      <c r="G29" s="286">
+        <v>9.4014080524752792</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.687232983487521</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>13.682880735705369</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4597,9 +4592,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4607,17 +4602,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4625,26 +4620,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4652,9 +4647,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4667,16 +4662,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5628,10 +5623,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5657,59 +5652,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>3656853.6666666665</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5717,19 +5712,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5778,928 +5773,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>36423236</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>32043306</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.13668783114950744</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>28575291</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>25644599</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>7847945</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>6398707</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2355855</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1904566</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>1568223</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>1385962</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>119693.33333333333</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>9.3263961798032535E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3656853.6666666665</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2988485.6666666665</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.2236477181252445</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>404504</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>1576341</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>388601</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>265410</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.103444735113596E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>2.9479854544346953E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>1130375</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>944632</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.201364755179908E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>4.4091954806411052E-2</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1530273</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1412852</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2463850.6666666665</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>678514.66666666651</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.0733767861812169E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>1.588119527991275E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1847888</v>
       </c>
@@ -6743,63 +6738,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>2.6312415747338309</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6845,11 +6840,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6896,266 +6891,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>10790388</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>9296608</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>27505690</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>1288819</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>7362246</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7202,165 +7197,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>21881329</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>1503117</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7406,63 +7401,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.12249523043931879</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7475,372 +7470,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.80031064834571064</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.10269002830107481</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>4.9194081284871169E-2</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>8.2828532112136002E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>3.7353615551820193E-3</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.4612100262064096E-2</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.764502381574955E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>2.1174927039883665E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7852,216 +7847,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.73750626657583851</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.29625011901743165</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.25523838683635908</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>9.2353987392492579E-2</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8077,350 +8072,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.41262283921206094</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.28480316199990019</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.1577210036539011</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.39116324677825692</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.17944919145343402</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.12090612594798143</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9699,7 +9694,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9717,7 +9712,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9735,25 +9730,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>21881329</v>
       </c>
@@ -9761,12 +9756,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>20378212</v>
       </c>
@@ -9774,28 +9769,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>1503117</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9808,7 +9803,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-4204595.6499999985</v>
@@ -9817,16 +9812,16 @@
         <f>1-D6/D3</f>
         <v>1.1921544916216011</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.4129067960894532</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9834,7 +9829,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9844,287 +9839,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>1.4064601316484016</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>6675129</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>6007616.1000000006</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>1143514</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>145305</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>10790388</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>6474232.7999999998</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>9792257</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>5875354.2000000002</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>91072</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>45536</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>1288819</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>33867</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>20320.2</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>9296608</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>4648304</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10135,21 +10130,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10162,45 +10157,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>31969</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>28772.100000000002</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10208,17 +10203,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10228,19 +10223,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.67346669981195095</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>18357203.100000001</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.79467945889182967</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10250,17 +10245,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.5271068281321285</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>65856.2</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.8509010384415319E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10269,7 +10264,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10279,17 +10274,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>4648304</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.20122410191587015</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10302,7 +10297,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10312,17 +10307,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>28772.100000000002</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>1.2455381538586134E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10349,12 +10344,12 @@
         <f>SUM(E24:E27)</f>
         <v>23100135.400000002</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>19380410</v>
       </c>
@@ -10364,171 +10359,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>1468712</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>6159723</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>415031</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>249018.59999999998</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>1202523</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>292496</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>116998.40000000001</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>7362246</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>777184</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>77718.400000000009</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10536,25 +10531,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>314605</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>62921</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10562,26 +10557,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10589,113 +10584,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>8123430</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>812343</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>813309</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>40665.450000000004</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>382679</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>344411.10000000003</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>88283</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10703,17 +10698,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10723,16 +10718,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.13219351047356245</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>249018.59999999998</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10742,16 +10737,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.18203275746017503</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>194716.80000000002</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10761,14 +10756,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1037284154426949</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>875264</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10781,7 +10776,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10791,14 +10786,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.29984057103212641</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>385076.55000000005</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10811,13 +10806,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>12675729</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.13443612986677136</v>
       </c>
@@ -10825,12 +10820,12 @@
         <f>SUM(E30:E42)</f>
         <v>1704075.95</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>8125280</v>
       </c>
@@ -10841,63 +10836,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>49387019</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.50224151714846366</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>24804211.350000001</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>27505690</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>1503117</v>
       </c>
@@ -10905,45 +10900,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>1503117</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10951,61 +10946,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11019,35 +11014,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>6310548.2000000002</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>8143841</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.73768828492599503</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>6007616.1000000006</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11061,29 +11056,29 @@
         <f>E61+E62</f>
         <v>12318164.300000001</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>8651065</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11097,9 +11092,9 @@
         <f>E63-E64</f>
         <v>3667099.3000000007</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11107,28 +11102,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11142,29 +11137,29 @@
         <f>E49-E63</f>
         <v>12486047.050000001</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>18854625</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11178,29 +11173,29 @@
         <f>E68-E69</f>
         <v>-6368577.9499999993</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11210,66 +11205,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>36423236</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>36423236</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>36423236</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>28575291</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.78453465804081768</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>29138588.800000001</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.8</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>28956472.620000001</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.79500000000000004</v>
       </c>
@@ -11277,50 +11272,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>7847945</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>7284647.1999999993</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>7466763.379999999</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>3924078</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.10773556748225227</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>3924078.0000000005</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.10773556748225227</v>
       </c>
@@ -11328,60 +11323,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>7.3308514744086254E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>267013.33333333331</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>7.3308514744086254E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>3656853.6666666665</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.10039892300252143</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>3093555.8666666653</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>8.4933581043339076E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>3275672.046666665</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>8.9933581043339067E-2</v>
       </c>
@@ -11389,61 +11384,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>404504</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>404504</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>404504</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>1.1105657937696694E-2</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>388601</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>388601</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>388601</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.0669041048412063E-2</v>
       </c>
@@ -11451,59 +11446,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>399898</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>1.0979200200663114E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>399897.99999999994</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>1.0979200200663114E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>2463850.6666666665</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>6.764502381574955E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1900552.8666666653</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>5.2179681856567198E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>2082669.046666665</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>5.7179681856567195E-2</v>
       </c>
@@ -11511,184 +11506,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1847888</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>5.0733767861812169E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1425414.649999999</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>3.9134761392425402E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1562001.7849999988</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>4.2884761392425391E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0349994804805442</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.79837274890001764</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.87487501189719374</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11066931300855731</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.11064513895190836</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.536754395711918E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.5348896693595994E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3547695782477125E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>9.3527261687101043E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.84</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.81159461027941082</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.70142674680662276</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.84</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.96013714939512762</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9818617961070185E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.9798998426985327E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9879078640713471E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>5.9865998951323558E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9818617961070185E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.9798998426985327E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11696,55 +11691,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.389050666724128</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>19.383150262126481</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.059788757719584</v>
+        <v>22.052909601495742</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.07636727218042</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>12.072984395090188</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.82174332441982</v>
+        <v>20.815321378509015</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11754,123 +11749,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19581576.832109712</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>19575470.485053685</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6397849110150329</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>9.6368513671202365</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.967613755932941</v>
-      </c>
-      <c r="I97" s="122">
+        <v>10.964193599499964</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.586543855335393</v>
+        <v>14.581995166540191</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-1605278.8418744802</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.89911443083482157</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-1605629.5676454306</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89931087184787251</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>17975947.264464281</v>
-      </c>
-      <c r="D100" s="109">
+        <v>17970191.643179204</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9937301923821984</v>
-      </c>
-      <c r="E100" s="109">
+        <v>7.9911968446039872</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7404740391671609</v>
-      </c>
-      <c r="F100" s="109">
+        <v>8.7377369362854154</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.404388461626116</v>
-      </c>
-      <c r="H100" s="109">
+        <v>9.4014080524752792</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.068302884085071</v>
-      </c>
-      <c r="I100" s="109">
+        <v>10.065079168665141</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.687232983487521</v>
+        <v>13.682880735705369</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11880,58 +11875,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18482614.279020056</v>
-      </c>
-      <c r="D103" s="109">
+        <v>18476913.778954297</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.0040888546457758</v>
-      </c>
-      <c r="E103" s="122">
+        <v>6.002406966858139</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0040888546457758</v>
-      </c>
-      <c r="F103" s="109">
+        <v>6.002406966858139</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>8.1780876119498913</v>
-      </c>
-      <c r="H103" s="122">
+        <v>8.1756502470049739</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.352086369254007</v>
-      </c>
-      <c r="I103" s="109">
+        <v>10.348893527151811</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.767913894456678</v>
+        <v>13.763667525794975</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11941,58 +11936,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13162470.779247107</v>
-      </c>
-      <c r="D106" s="109">
+        <v>13158525.946431216</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.9989095235139871</v>
-      </c>
-      <c r="E106" s="122">
+        <v>6.9968019057310631</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.3722814469064684</v>
-      </c>
-      <c r="F106" s="109">
+        <v>7.3700719515717772</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7912380367880036</v>
-      </c>
-      <c r="H106" s="122">
+        <v>8.7885291497401266</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.210194626669539</v>
-      </c>
-      <c r="I106" s="122">
+        <v>10.206986347908476</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>13.727573438972099</v>
+        <v>13.723274130750173</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12001,15 +11996,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D72E739-0316-4963-98D2-42810AD0B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B3C912-DE6B-42B4-B41B-5C5F5E9641A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3415,11 +3432,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9798998426985327E-2</v>
+        <v>8.8771285160933397E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9865998951323558E-2</v>
+        <v>5.9180856773955612E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3901,11 +3918,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3919,10 +3936,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4144,8 +4161,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4158,8 +4178,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4202,60 +4222,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>9.99</v>
+        <v>10.1</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>17836.145300700002</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>18032.539293000002</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4278,11 +4298,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4302,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4423,7 +4443,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.17944919145343405</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4435,20 +4455,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.41262283921206094</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.10039892300252143</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.73750626657583851</v>
       </c>
@@ -4457,26 +4477,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.10039892300252143</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>2.4235207190895847</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76325491670270806</v>
+        <v>0.7720911884977224</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.0669041048412063E-2</v>
       </c>
@@ -4485,7 +4505,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.692069691354137</v>
+        <v>10.815852757504814</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4517,7 +4537,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9798998426985327E-2</v>
+        <v>8.8771285160933397E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4536,10 +4556,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4547,22 +4567,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.9911968446039872</v>
+        <v>7.945590061542263</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.735312846061174</v>
+        <v>15.644641905728575</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.4014080524752792</v>
-      </c>
-      <c r="G29" s="285">
+        <v>9.3477530135791334</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.682880735705369</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>13.604036439763979</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5593,7 +5613,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7834,7 +7854,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9761,7 +9781,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>20378212</v>
       </c>
@@ -10808,7 +10828,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>12675729</v>
       </c>
@@ -10825,7 +10845,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>8125280</v>
       </c>
@@ -10934,11 +10954,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10949,11 +10969,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10965,11 +10985,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11183,19 +11203,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11205,18 +11225,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11583,17 +11603,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11064513895190836</v>
+        <v>0.10937885002756703</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5348896693595994E-2</v>
+        <v>8.4372113044430652E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3527261687101043E-2</v>
+        <v>9.2456879953929511E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11634,17 +11654,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9798998426985327E-2</v>
+        <v>8.8771285160933397E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9865998951323558E-2</v>
+        <v>5.9180856773955612E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9798998426985327E-2</v>
+        <v>8.8771285160933397E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11675,15 +11695,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11704,14 +11724,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.383150262126481</v>
+        <v>19.285287527903687</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.052909601495742</v>
+        <v>21.932909427138807</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11732,14 +11752,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.072984395090188</v>
+        <v>12.027278123898416</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.815321378509015</v>
+        <v>20.705765473905437</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11782,21 +11802,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19575470.485053685</v>
+        <v>19468951.213276222</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6368513671202365</v>
+        <v>9.5881962924119826</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.964193599499964</v>
+        <v>10.904532304577957</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.581995166540191</v>
+        <v>14.502647724679814</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11806,14 +11826,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-1605278.8418744802</v>
+        <v>-1604380.5251859426</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89911443083482157</v>
+        <v>-0.89861128491583542</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11845,27 +11865,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>17970191.643179204</v>
+        <v>17864570.68809028</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9911968446039872</v>
+        <v>7.945590061542263</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7377369362854154</v>
+        <v>8.6895850074961469</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.4014080524752792</v>
+        <v>9.3477530135791334</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.065079168665141</v>
+        <v>10.00592101966212</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.682880735705369</v>
+        <v>13.604036439763979</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11906,27 +11926,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18476913.778954297</v>
+        <v>18379665.460442837</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.002406966858139</v>
+        <v>5.9796828721643553</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.002406966858139</v>
+        <v>5.9796828721643553</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>8.1756502470049739</v>
+        <v>8.1370538761663553</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.348893527151811</v>
+        <v>10.294424880168354</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.763667525794975</v>
+        <v>13.691226124625537</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11967,27 +11987,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13158525.946431216</v>
+        <v>13095254.922748554</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.9968019057310631</v>
+        <v>6.9626364668533096</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.3700719515717772</v>
+        <v>7.3346339398302511</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7885291497401266</v>
+        <v>8.7424034448727443</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.206986347908476</v>
+        <v>10.150172949915238</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>13.723274130750173</v>
+        <v>13.647631282194759</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B3C912-DE6B-42B4-B41B-5C5F5E9641A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B873188-5283-4D1A-AB2D-2B5D51071CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3432,11 +3432,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8771285160933397E-2</v>
+        <v>8.8982499617468527E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9180856773955612E-2</v>
+        <v>5.9321666411645699E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>10.1</v>
+        <v>10.06</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>18032.539293000002</v>
+        <v>17961.1232958</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4322,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7720911884977224</v>
+        <v>0.77025850430167064</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.815852757504814</v>
+        <v>10.790179569271608</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8771285160933397E-2</v>
+        <v>8.8982499617468527E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4567,20 +4567,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.945590061542263</v>
+        <v>6.4679938382340838</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.644641905728575</v>
+        <v>13.782200378702473</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.3477530135791334</v>
+        <v>7.6094045155695103</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.604036439763979</v>
+        <v>11.984522068436934</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9732,7 +9732,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11603,17 +11603,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10937885002756703</v>
+        <v>0.10963909628088113</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4372113044430652E-2</v>
+        <v>8.4572860504277522E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2456879953929511E-2</v>
+        <v>9.2676863585089073E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11654,17 +11654,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8771285160933397E-2</v>
+        <v>8.8982499617468527E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9180856773955612E-2</v>
+        <v>5.9321666411645699E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8771285160933397E-2</v>
+        <v>8.8982499617468527E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11724,14 +11724,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.285287527903687</v>
+        <v>19.272443539585879</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.932909427138807</v>
+        <v>21.920081413938288</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11752,14 +11752,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.027278123898416</v>
+        <v>12.016132695905762</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.705765473905437</v>
+        <v>20.692892526411281</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11802,21 +11802,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19468951.213276222</v>
+        <v>19457564.307950515</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5881962924119826</v>
+        <v>9.5818105602319257</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.904532304577957</v>
+        <v>10.898154514854561</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.502647724679814</v>
+        <v>14.494165486740853</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11826,14 +11826,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-1604380.5251859426</v>
+        <v>-1601828.7443425655</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89861128491583542</v>
+        <v>-0.89718203603971547</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11843,18 +11843,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-2878888.43902221</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-1.8543305896038327</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-1.6124613822642024</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11865,27 +11865,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>17864570.68809028</v>
+        <v>14976847.12458574</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.945590061542263</v>
+        <v>6.4679938382340838</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.6895850074961469</v>
+        <v>6.8302979345883772</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>9.3477530135791334</v>
+        <v>7.6094045155695103</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.00592101966212</v>
+        <v>8.3885110965506424</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.604036439763979</v>
+        <v>11.984522068436934</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11926,27 +11926,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18379665.460442837</v>
+        <v>18368238.668773118</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9796828721643553</v>
+        <v>5.9741416246614651</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9796828721643553</v>
+        <v>5.9741416246614651</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>8.1370538761663553</v>
+        <v>8.1310831874105034</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.294424880168354</v>
+        <v>10.288024750159543</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.691226124625537</v>
+        <v>13.68271417488598</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11987,27 +11987,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13095254.922748554</v>
+        <v>11430522.746386949</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.9626364668533096</v>
+        <v>6.2210677314477749</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.3346339398302511</v>
+        <v>6.4022197796249216</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7424034448727443</v>
+        <v>7.8702438514900068</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.150172949915238</v>
+        <v>9.3382679233550938</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>13.647631282194759</v>
+        <v>12.833618121661457</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48DFE0F-1AF6-4E61-8F10-A210023725E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33424D69-F892-4584-8C07-3D3EA6F8B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3645,11 +3645,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7103170725801995E-2</v>
+        <v>8.7267824448645115E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8068780483868015E-2</v>
+        <v>5.8178549632430077E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.26</v>
+        <v>10.24</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>18318.203281800001</v>
+        <v>18282.495283200002</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4535,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4666,7 +4666,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78687752114254861</v>
+        <v>0.78539286956453302</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.022987353900223</v>
+        <v>11.002189586611546</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7103170725801995E-2</v>
+        <v>8.7267824448645115E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4785,20 +4785,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.5130543502875797</v>
+        <v>6.4913608870199369</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>13.475933851465822</v>
+        <v>13.622933693020689</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.838887470926565</v>
+        <v>7.6368951611999254</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.718203349100715</v>
+        <v>11.846029298278861</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1.6097857008582739</v>
+        <v>-1.6096848111589539</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1.6097857008582739</v>
+        <v>-1.6096848111589539</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1.6097857008582739</v>
+        <v>-1.6096848111589539</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11835,17 +11835,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10732349577311097</v>
+        <v>0.1075263725797798</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2786664107459634E-2</v>
+        <v>8.2943158209034487E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0719508958356343E-2</v>
+        <v>9.0890998753274527E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11886,17 +11886,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7103170725801995E-2</v>
+        <v>8.7267824448645115E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8068780483868015E-2</v>
+        <v>5.8178549632430077E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7103170725801995E-2</v>
+        <v>8.7267824448645115E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11949,21 +11949,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.276107736811454</v>
+        <v>19.095144590394312</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.230618895890931</v>
+        <v>21.70409797060195</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11984,14 +11984,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.65236120468766</v>
+        <v>11.930859536688319</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.33036581147724</v>
+        <v>20.495140694958661</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12034,21 +12034,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21401460.146678954</v>
+        <v>19265844.594012905</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.701805037765403</v>
+        <v>9.4936616475010442</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.98692785132962</v>
+        <v>10.790772571618117</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.223682322721661</v>
+        <v>14.351351246638515</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12058,14 +12058,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-1599170.7064919472</v>
+        <v>-1599070.4820635319</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89569327276267297</v>
+        <v>-0.89563713720070093</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12076,17 +12076,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2874111.2776273633</v>
+        <v>-2873931.1491652592</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1.6097857008582739</v>
+        <v>-1.6096848111589539</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-1.6097857008582739</v>
+        <v>-1.6096848111589539</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12098,23 +12098,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5130543502875797</v>
+        <v>6.4913608870199369</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.1963260641444577</v>
+        <v>6.9883396991413891</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.838887470926565</v>
+        <v>7.6368951611999254</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.4814488777086741</v>
+        <v>8.2854506232584626</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.718203349100715</v>
+        <v>11.846029298278861</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12153,23 +12153,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.0041004058109069</v>
+        <v>5.9317457937531657</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0041004058109069</v>
+        <v>5.9317457937531657</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>9.1995486204207797</v>
+        <v>8.0607264669759182</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.394996835030653</v>
+        <v>10.189707140198671</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.521297288188531</v>
+        <v>13.551955181967378</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12208,23 +12208,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.2585773780492433</v>
+        <v>6.2115533403865513</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.6002132349776819</v>
+        <v>6.4600427464472769</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>9.0192180456736715</v>
+        <v>7.8488108140879218</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>10.438222856369663</v>
+        <v>9.2375788817285667</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>12.619750318644623</v>
+        <v>12.698992240123118</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33424D69-F892-4584-8C07-3D3EA6F8B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BABC67A-FBC9-42EA-8983-34672C51E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3645,11 +3646,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7267824448645115E-2</v>
+        <v>8.7097711730421634E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8178549632430077E-2</v>
+        <v>5.8065141153614427E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4350,7 +4351,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4373,6 +4374,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4391,8 +4395,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4428,24 +4432,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.24</v>
+        <v>10.26</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4455,7 +4462,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
@@ -4484,11 +4491,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>18282.495283200002</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>18318.203281800001</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4511,11 +4518,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4583,10 +4590,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4633,7 +4640,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4707,7 +4714,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78539286956453302</v>
+        <v>0.78692684001290125</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4723,7 +4730,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.002189586611546</v>
+        <v>11.023678238147896</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4755,7 +4762,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7267824448645115E-2</v>
+        <v>8.7097711730421634E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4774,10 +4781,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4785,22 +4792,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.4913608870199369</v>
+        <v>7.303327075440361</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>13.622933693020689</v>
+        <v>15.662457453695987</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.6368951611999254</v>
-      </c>
-      <c r="G29" s="312">
+        <v>8.5921495005180724</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.846029298278861</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>13.619528220605208</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5782,15 +5789,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5818,7 +5826,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11835,17 +11843,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1075263725797798</v>
+        <v>0.10731676951432215</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2943158209034487E-2</v>
+        <v>8.2781475639426227E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0890998753274527E-2</v>
+        <v>9.0713823317108311E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11886,17 +11894,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7267824448645115E-2</v>
+        <v>8.7097711730421634E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8178549632430077E-2</v>
+        <v>5.8065141153614427E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7267824448645115E-2</v>
+        <v>8.7097711730421634E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11945,7 +11953,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11956,14 +11964,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.095144590394312</v>
+        <v>20.89436782932426</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.70409797060195</v>
+        <v>23.747590094228237</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11984,14 +11992,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.930859536688319</v>
+        <v>13.057784724203998</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.495140694958661</v>
+        <v>22.425474405887645</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12034,21 +12042,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19265844.594012905</v>
+        <v>21079769.399190221</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.4936616475010442</v>
+        <v>10.388193583505052</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.790772571618117</v>
+        <v>11.806749314250403</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.351351246638515</v>
+        <v>16.124850168964862</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12098,23 +12106,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.4913608870199369</v>
+        <v>7.303327075440361</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.9883396991413891</v>
+        <v>7.8828716351453965</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>7.6368951611999254</v>
+        <v>8.5921495005180724</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.2854506232584626</v>
+        <v>9.3014273658907491</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.846029298278861</v>
+        <v>13.619528220605208</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12153,23 +12161,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9317457937531657</v>
+        <v>6.4920267794076238</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9317457937531657</v>
+        <v>6.4920267794076238</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>8.0607264669759182</v>
+        <v>8.8207254660211003</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.189707140198671</v>
+        <v>11.149424152634577</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.551955181967378</v>
+        <v>15.227120450035976</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12208,23 +12216,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.2115533403865513</v>
+        <v>6.8976769274239924</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>6.4600427464472769</v>
+        <v>7.1874492072765097</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.8488108140879218</v>
+        <v>8.7064374832695854</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>9.2375788817285667</v>
+        <v>10.225425759262663</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>12.698992240123118</v>
+        <v>14.423324335320592</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BABC67A-FBC9-42EA-8983-34672C51E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90BBE39-4943-41F5-BD2A-130EC12FAEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3646,11 +3646,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7097711730421634E-2</v>
+        <v>8.6928260929389697E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8065141153614427E-2</v>
+        <v>5.7952173952926463E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4432,27 +4432,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.26</v>
+        <v>10.28</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4462,40 +4462,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>18318.203281800001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>18353.911280399996</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4518,11 +4518,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4673,7 +4673,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78692684001290125</v>
+        <v>0.78846081046126937</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.023678238147896</v>
+        <v>11.045166889684246</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7097711730421634E-2</v>
+        <v>8.6928260929389697E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4781,10 +4781,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4792,22 +4792,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.303327075440361</v>
+        <v>7.8439425242916592</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>15.662457453695987</v>
+        <v>15.476922239250696</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.5921495005180724</v>
-      </c>
-      <c r="G29" s="313">
+        <v>9.2281676756372466</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.619528220605208</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>13.458193251522346</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5790,15 +5790,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11171,7 +11171,7 @@
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11182,11 +11182,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11198,11 +11198,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11843,17 +11843,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10731676951432215</v>
+        <v>0.10710798202499468</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2781475639426227E-2</v>
+        <v>8.2620422184874823E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0713823317108311E-2</v>
+        <v>9.0537337279526384E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7097711730421634E-2</v>
+        <v>8.6928260929389697E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8065141153614427E-2</v>
+        <v>5.7952173952926463E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7097711730421634E-2</v>
+        <v>8.6928260929389697E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11957,21 +11957,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.89436782932426</v>
+        <v>19.285460379423355</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.747590094228237</v>
+        <v>21.758432993938097</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11992,14 +11992,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.057784724203998</v>
+        <v>12.335921967430712</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.425474405887645</v>
+        <v>20.615897904495537</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12042,21 +12042,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21079769.399190221</v>
+        <v>22211186.920736723</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.388193583505052</v>
+        <v>11.026524564691156</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.806749314250403</v>
+        <v>12.440454683302649</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.124850168964862</v>
+        <v>15.963515199882002</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12106,23 +12106,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.303327075440361</v>
+        <v>7.8439425242916592</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.8828716351453965</v>
+        <v>8.5212026163315002</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.5921495005180724</v>
+        <v>9.2281676756372466</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.3014273658907491</v>
+        <v>9.935132734942993</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.619528220605208</v>
+        <v>13.458193251522346</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12161,23 +12161,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4920267794076238</v>
+        <v>7.0531034222609073</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.4920267794076238</v>
+        <v>7.0531034222609073</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>8.8207254660211003</v>
+        <v>9.4201549799854227</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.149424152634577</v>
+        <v>11.787206537709938</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.227120450035976</v>
+        <v>15.125271183330065</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12216,23 +12216,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.8976769274239924</v>
+        <v>7.4485229732762832</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.1874492072765097</v>
+        <v>7.7871530192962037</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.7064374832695854</v>
+        <v>9.3241613278113356</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>10.225425759262663</v>
+        <v>10.861169636326466</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>14.423324335320592</v>
+        <v>14.291732217426205</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{002D3057-A2F9-4242-87A4-D7440B176EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9297C80E-1521-4DE6-881F-9D34C82AA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3669,11 +3669,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6925539988951916E-2</v>
+        <v>9.0496198368458597E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.795035999263462E-2</v>
+        <v>6.0330798912305743E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4460,27 +4460,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.28</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4490,7 +4490,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
@@ -4519,11 +4519,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>18353.911280399996</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>17639.751308400002</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4546,11 +4546,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4570,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78848549083602515</v>
+        <v>0.75737465551109773</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.045512625140544</v>
+        <v>10.609695950827613</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6925539988951916E-2</v>
+        <v>9.0496198368458597E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4809,10 +4809,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4820,22 +4820,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.9267060550960871</v>
+        <v>8.063905484791789</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>15.663526348763682</v>
+        <v>15.92683049414233</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.3255365354071618</v>
-      </c>
-      <c r="G29" s="313">
+        <v>9.48694762916681</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.620457694577116</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>13.849417820993331</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5818,15 +5818,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1.6096344264342632</v>
+        <v>-1.6105492879747021</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1.6096344264342632</v>
+        <v>-1.6105492879747021</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1.6096344264342632</v>
+        <v>-1.6105492879747021</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11973,17 +11973,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10710462943935239</v>
+        <v>0.11150418844859396</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2617836084045188E-2</v>
+        <v>8.6011546019556656E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0534503371433692E-2</v>
+        <v>9.4253407886019075E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12024,17 +12024,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6925539988951916E-2</v>
+        <v>9.0496198368458597E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.795035999263462E-2</v>
+        <v>6.0330798912305743E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6925539988951916E-2</v>
+        <v>9.0496198368458597E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12094,14 +12094,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.445378063769873</v>
+        <v>19.701541972912086</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.938838487353962</v>
+        <v>22.252273405509886</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12122,14 +12122,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.438246666269968</v>
+        <v>12.557704979885726</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.786838231657395</v>
+        <v>21.073305017800148</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12172,21 +12172,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>22395346.328581207</v>
+        <v>22715303.26466142</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.117958019744</v>
+        <v>11.26442056619986</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.543602109685983</v>
+        <v>12.722809541423819</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.125701223884946</v>
+        <v>16.356085245638361</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12196,14 +12196,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-1599020.4295778275</v>
+        <v>-1599929.258482933</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89560910287356599</v>
+        <v>-0.89611813667032747</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12214,17 +12214,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2873841.192281324</v>
+        <v>-2875474.586011583</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1.6096344264342632</v>
+        <v>-1.6105492879747021</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-1.6096344264342632</v>
+        <v>-1.6105492879747021</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12236,23 +12236,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9267060550960871</v>
+        <v>8.063905484791789</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.6127144904361703</v>
+        <v>8.7577531415548293</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>9.3255365354071618</v>
+        <v>9.48694762916681</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.038358580378153</v>
+        <v>10.216142116778789</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.620457694577116</v>
+        <v>13.849417820993331</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12291,23 +12291,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.1116079009265816</v>
+        <v>7.1799085794494619</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.1116079009265816</v>
+        <v>7.1799085794494619</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>9.4982750627470232</v>
+        <v>9.6143195593743265</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.884942224567466</v>
+        <v>12.048730539299191</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.278946645518822</v>
+        <v>15.489508285168403</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12346,23 +12346,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.5191569780113348</v>
+        <v>7.6219070321206255</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>7.8621611956813755</v>
+        <v>7.9688308605021456</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.4119057990770933</v>
+        <v>9.5506335942705682</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>10.961650402472809</v>
+        <v>11.13243632803899</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>14.449702170047969</v>
+        <v>14.669463053080868</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0564.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0564.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9297C80E-1521-4DE6-881F-9D34C82AA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85831B4B-7A05-4271-915D-70C864EFAF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3669,11 +3669,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0496198368458597E-2</v>
+        <v>9.0703394260193054E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0330798912305743E-2</v>
+        <v>6.0468929506795374E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4460,27 +4460,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0564.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>9.8800000000000008</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4490,40 +4490,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>鄭煤機</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1785399930</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45634</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>17639.751308400002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>17550.481311900003</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4546,11 +4546,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4570,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.75737465551109773</v>
+        <v>0.75564456681479664</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.609695950827613</v>
+        <v>10.585459973425742</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.0496198368458597E-2</v>
+        <v>9.0703394260193054E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4809,10 +4809,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4820,22 +4820,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.063905484791789</v>
+        <v>8.0491840530192729</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>15.92683049414233</v>
+        <v>15.89731072251659</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.48694762916681</v>
-      </c>
-      <c r="G29" s="314">
+        <v>9.4696282976697326</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.849417820993331</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>13.823748454362253</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5818,15 +5818,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11301,7 +11301,7 @@
         <f>I15+I34</f>
         <v>8651065</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11312,11 +11312,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11328,11 +11328,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-1.6105492879747021</v>
+        <v>-1.6060675126010271</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-1.6105492879747021</v>
+        <v>-1.6060675126010271</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-1.6105492879747021</v>
+        <v>-1.6060675126010271</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11973,17 +11973,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11150418844859396</v>
+        <v>0.11175948325847831</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6011546019556656E-2</v>
+        <v>8.6208474059610005E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4253407886019075E-2</v>
+        <v>9.4469206110121717E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12024,17 +12024,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0496198368458597E-2</v>
+        <v>9.0703394260193054E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0330798912305743E-2</v>
+        <v>6.0468929506795374E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0496198368458597E-2</v>
+        <v>9.0703394260193054E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12094,14 +12094,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.701541972912086</v>
+        <v>19.660971417195434</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.252273405509886</v>
+        <v>22.207860480799848</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12122,14 +12122,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.557704979885726</v>
+        <v>12.529286571949957</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.073305017800148</v>
+        <v>21.030638845911167</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12172,21 +12172,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>22715303.26466142</v>
+        <v>22669966.186724506</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.26442056619986</v>
+        <v>11.24122421929335</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.722809541423819</v>
+        <v>12.697416307574576</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.356085245638361</v>
+        <v>16.323440420126484</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12196,14 +12196,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-1599929.258482933</v>
+        <v>-1595477.0361238718</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.89611813667032747</v>
+        <v>-0.89362445316320349</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12214,17 +12214,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2875474.586011583</v>
+        <v>-2867472.8245731476</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-1.6105492879747021</v>
+        <v>-1.6060675126010271</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-1.6105492879747021</v>
+        <v>-1.6060675126010271</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12236,23 +12236,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.063905484791789</v>
+        <v>8.0491840530192729</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7577531415548293</v>
+        <v>8.7415322535291189</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>9.48694762916681</v>
+        <v>9.4696282976697326</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.216142116778789</v>
+        <v>10.197724341810344</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.849417820993331</v>
+        <v>13.823748454362253</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12291,23 +12291,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.1799085794494619</v>
+        <v>7.1636602624775989</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.1799085794494619</v>
+        <v>7.1636602624775989</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>9.6143195593743265</v>
+        <v>9.5939981397611174</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.048730539299191</v>
+        <v>12.024336017044636</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.489508285168403</v>
+        <v>15.458147375125456</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12346,23 +12346,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.6219070321206255</v>
+        <v>7.6064221577484359</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>7.9688308605021456</v>
+        <v>7.9525962580033589</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.5506335942705682</v>
+        <v>9.5318132187154241</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>11.13243632803899</v>
+        <v>11.111030179427491</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>14.669463053080868</v>
+        <v>14.640947914743855</v>
       </c>
       <c r="K106" s="75"/>
     </row>
